--- a/ASHRAE901_ApartmentHighRise_STD2019_BuffaloTable.html+a.xlsx
+++ b/ASHRAE901_ApartmentHighRise_STD2019_BuffaloTable.html+a.xlsx
@@ -877,42 +877,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1982.17</t>
+          <t>2359.58</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1281.20</t>
+          <t>2450.32</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>467.36</t>
+          <t>723.70</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1027.22</t>
+          <t>2040.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>857.05</t>
+          <t>1624.44</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>850.33</t>
+          <t>1613.24</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1267.31</t>
+          <t>1611.60</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1307.48</t>
+          <t>1590.88</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -922,42 +922,42 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2865.85</t>
+          <t>3166.89</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2186.77</t>
+          <t>3207.02</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2375.57</t>
+          <t>2648.17</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1726.45</t>
+          <t>2538.30</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1349.99</t>
+          <t>1972.45</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1340.76</t>
+          <t>1957.69</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1767.84</t>
+          <t>1908.94</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1756.58</t>
+          <t>1905.12</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -967,42 +967,42 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2929.67</t>
+          <t>3205.78</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2228.81</t>
+          <t>3235.64</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2410.22</t>
+          <t>2631.78</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1803.96</t>
+          <t>2581.48</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1406.31</t>
+          <t>2008.00</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1397.08</t>
+          <t>1992.99</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1797.61</t>
+          <t>1936.66</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>1799.28</t>
+          <t>1921.87</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1012,42 +1012,42 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>3090.49</t>
+          <t>3223.28</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2290.64</t>
+          <t>3248.06</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>2561.73</t>
+          <t>2625.39</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>1817.34</t>
+          <t>2603.11</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>1417.60</t>
+          <t>2027.61</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>1408.29</t>
+          <t>2012.16</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>1892.39</t>
+          <t>1949.94</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1880.14</t>
+          <t>1934.95</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1057,42 +1057,42 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>3105.54</t>
+          <t>3236.85</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>2297.03</t>
+          <t>3261.18</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>2575.70</t>
+          <t>2642.99</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>1825.01</t>
+          <t>2611.55</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1422.52</t>
+          <t>2042.13</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>1413.22</t>
+          <t>2026.66</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>1902.05</t>
+          <t>1947.26</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>1889.74</t>
+          <t>1935.70</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1102,42 +1102,42 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>3117.55</t>
+          <t>3246.29</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>2247.05</t>
+          <t>3272.29</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>2586.71</t>
+          <t>2647.81</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>1826.84</t>
+          <t>2616.10</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>1424.90</t>
+          <t>2051.54</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>1415.63</t>
+          <t>2038.59</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>1909.68</t>
+          <t>1955.19</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>1901.48</t>
+          <t>1941.03</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
@@ -1147,42 +1147,42 @@
       </c>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>3128.64</t>
+          <t>3254.27</t>
         </is>
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>2248.75</t>
+          <t>3284.01</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>2597.05</t>
+          <t>2660.27</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1784.52</t>
+          <t>2618.68</t>
         </is>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
-          <t>1427.14</t>
+          <t>2058.89</t>
         </is>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>1417.90</t>
+          <t>2046.02</t>
         </is>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>1917.13</t>
+          <t>1947.94</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>1909.10</t>
+          <t>1934.26</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
@@ -1192,42 +1192,42 @@
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>3141.85</t>
+          <t>3236.21</t>
         </is>
       </c>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>2256.81</t>
+          <t>3300.62</t>
         </is>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>2609.62</t>
+          <t>2674.44</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
-          <t>1791.44</t>
+          <t>2631.51</t>
         </is>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
-          <t>1434.17</t>
+          <t>2072.13</t>
         </is>
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>1424.98</t>
+          <t>2059.28</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
         <is>
-          <t>1928.29</t>
+          <t>1923.60</t>
         </is>
       </c>
       <c r="BS3" t="inlineStr">
         <is>
-          <t>1920.49</t>
+          <t>1911.52</t>
         </is>
       </c>
       <c r="BT3" t="inlineStr">
@@ -1237,42 +1237,42 @@
       </c>
       <c r="BU3" t="inlineStr">
         <is>
-          <t>3260.44</t>
+          <t>3310.95</t>
         </is>
       </c>
       <c r="BV3" t="inlineStr">
         <is>
-          <t>2349.54</t>
+          <t>3394.45</t>
         </is>
       </c>
       <c r="BW3" t="inlineStr">
         <is>
-          <t>2683.23</t>
+          <t>2726.19</t>
         </is>
       </c>
       <c r="BX3" t="inlineStr">
         <is>
-          <t>1870.82</t>
+          <t>2684.01</t>
         </is>
       </c>
       <c r="BY3" t="inlineStr">
         <is>
-          <t>1497.72</t>
+          <t>2155.54</t>
         </is>
       </c>
       <c r="BZ3" t="inlineStr">
         <is>
-          <t>1488.38</t>
+          <t>2142.83</t>
         </is>
       </c>
       <c r="CA3" t="inlineStr">
         <is>
-          <t>2025.40</t>
+          <t>2003.48</t>
         </is>
       </c>
       <c r="CB3" t="inlineStr">
         <is>
-          <t>2017.53</t>
+          <t>1997.58</t>
         </is>
       </c>
       <c r="CC3" t="inlineStr">
@@ -1282,42 +1282,42 @@
       </c>
       <c r="CD3" t="inlineStr">
         <is>
-          <t>4032.71</t>
+          <t>4139.16</t>
         </is>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>2845.60</t>
+          <t>3925.78</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>3188.78</t>
+          <t>3339.02</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
         <is>
-          <t>1654.23</t>
+          <t>3143.35</t>
         </is>
       </c>
       <c r="CH3" t="inlineStr">
         <is>
-          <t>1701.29</t>
+          <t>2501.45</t>
         </is>
       </c>
       <c r="CI3" t="inlineStr">
         <is>
-          <t>1667.64</t>
+          <t>2469.76</t>
         </is>
       </c>
       <c r="CJ3" t="inlineStr">
         <is>
-          <t>2460.72</t>
+          <t>2591.50</t>
         </is>
       </c>
       <c r="CK3" t="inlineStr">
         <is>
-          <t>2456.95</t>
+          <t>2598.26</t>
         </is>
       </c>
       <c r="CL3" t="inlineStr">
@@ -1329,42 +1329,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1879.85</t>
+          <t>2359.88</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>137.34</t>
+          <t>2455.75</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>341.47</t>
+          <t>774.41</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>136.31</t>
+          <t>2042.96</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>147.71</t>
+          <t>1655.35</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>147.42</t>
+          <t>1646.22</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1195.92</t>
+          <t>1573.58</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1187.28</t>
+          <t>1568.49</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1374,42 +1374,42 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2223.24</t>
+          <t>3192.05</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2646.21</t>
+          <t>3219.93</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1785.67</t>
+          <t>2634.30</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1059.80</t>
+          <t>2548.15</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1601.66</t>
+          <t>1985.73</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1586.09</t>
+          <t>1970.44</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1271.26</t>
+          <t>1890.67</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1263.29</t>
+          <t>1880.78</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1419,42 +1419,42 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2290.47</t>
+          <t>3222.18</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>2695.16</t>
+          <t>3274.53</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1831.39</t>
+          <t>2652.52</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2089.70</t>
+          <t>2591.90</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>1632.04</t>
+          <t>2011.14</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>1616.44</t>
+          <t>1997.72</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>1289.63</t>
+          <t>1921.07</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>1280.26</t>
+          <t>1905.50</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1464,42 +1464,42 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2308.78</t>
+          <t>3241.74</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2709.19</t>
+          <t>3300.39</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>1845.53</t>
+          <t>2669.26</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2101.72</t>
+          <t>2604.52</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>1642.80</t>
+          <t>2021.05</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>1627.28</t>
+          <t>2007.67</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>1535.63</t>
+          <t>1937.67</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1520.90</t>
+          <t>1921.51</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1509,42 +1509,42 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>2320.29</t>
+          <t>3256.76</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>2712.63</t>
+          <t>3318.17</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>1847.99</t>
+          <t>2684.04</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>1895.75</t>
+          <t>2612.37</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1646.60</t>
+          <t>2035.05</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>1631.13</t>
+          <t>2019.02</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>1585.82</t>
+          <t>1943.77</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>1572.48</t>
+          <t>1931.28</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1554,42 +1554,42 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>2326.59</t>
+          <t>3270.05</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>2711.11</t>
+          <t>3332.68</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>2140.20</t>
+          <t>2705.74</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>1348.66</t>
+          <t>2622.74</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>1646.99</t>
+          <t>2046.42</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>1631.56</t>
+          <t>2031.97</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>1587.86</t>
+          <t>1946.51</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>1577.07</t>
+          <t>1938.24</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
@@ -1599,42 +1599,42 @@
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>2330.36</t>
+          <t>3282.76</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>2708.63</t>
+          <t>3346.57</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>2132.13</t>
+          <t>2714.93</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>769.94</t>
+          <t>2628.83</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
-          <t>1646.70</t>
+          <t>2053.69</t>
         </is>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>1552.27</t>
+          <t>2040.00</t>
         </is>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>1588.18</t>
+          <t>1952.67</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr">
         <is>
-          <t>1577.70</t>
+          <t>1940.66</t>
         </is>
       </c>
       <c r="BK4" t="inlineStr">
@@ -1644,42 +1644,42 @@
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>2334.39</t>
+          <t>3295.46</t>
         </is>
       </c>
       <c r="BM4" t="inlineStr">
         <is>
-          <t>2710.63</t>
+          <t>3367.87</t>
         </is>
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>2135.69</t>
+          <t>2728.22</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
         <is>
-          <t>324.79</t>
+          <t>2641.04</t>
         </is>
       </c>
       <c r="BP4" t="inlineStr">
         <is>
-          <t>1332.63</t>
+          <t>2067.16</t>
         </is>
       </c>
       <c r="BQ4" t="inlineStr">
         <is>
-          <t>1003.47</t>
+          <t>2053.53</t>
         </is>
       </c>
       <c r="BR4" t="inlineStr">
         <is>
-          <t>1589.69</t>
+          <t>1959.76</t>
         </is>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
-          <t>1579.79</t>
+          <t>1954.76</t>
         </is>
       </c>
       <c r="BT4" t="inlineStr">
@@ -1689,42 +1689,42 @@
       </c>
       <c r="BU4" t="inlineStr">
         <is>
-          <t>2429.94</t>
+          <t>3389.67</t>
         </is>
       </c>
       <c r="BV4" t="inlineStr">
         <is>
-          <t>2803.64</t>
+          <t>3488.32</t>
         </is>
       </c>
       <c r="BW4" t="inlineStr">
         <is>
-          <t>2194.81</t>
+          <t>2785.33</t>
         </is>
       </c>
       <c r="BX4" t="inlineStr">
         <is>
-          <t>562.97</t>
+          <t>2699.67</t>
         </is>
       </c>
       <c r="BY4" t="inlineStr">
         <is>
-          <t>1559.60</t>
+          <t>2156.21</t>
         </is>
       </c>
       <c r="BZ4" t="inlineStr">
         <is>
-          <t>1203.98</t>
+          <t>2137.38</t>
         </is>
       </c>
       <c r="CA4" t="inlineStr">
         <is>
-          <t>1632.92</t>
+          <t>2039.87</t>
         </is>
       </c>
       <c r="CB4" t="inlineStr">
         <is>
-          <t>1623.06</t>
+          <t>2028.85</t>
         </is>
       </c>
       <c r="CC4" t="inlineStr">
@@ -1734,42 +1734,42 @@
       </c>
       <c r="CD4" t="inlineStr">
         <is>
-          <t>2992.57</t>
+          <t>4137.29</t>
         </is>
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>2909.99</t>
+          <t>4099.37</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>2358.19</t>
+          <t>3383.69</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
         <is>
-          <t>1933.44</t>
+          <t>3240.34</t>
         </is>
       </c>
       <c r="CH4" t="inlineStr">
         <is>
-          <t>2043.14</t>
+          <t>2497.05</t>
         </is>
       </c>
       <c r="CI4" t="inlineStr">
         <is>
-          <t>2003.96</t>
+          <t>2462.29</t>
         </is>
       </c>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>1951.10</t>
+          <t>2578.29</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>1944.28</t>
+          <t>2593.18</t>
         </is>
       </c>
       <c r="CL4" t="inlineStr">
@@ -1781,42 +1781,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1608.17</t>
+          <t>2382.48</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1606.26</t>
+          <t>2476.26</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>318.06</t>
+          <t>608.87</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1299.48</t>
+          <t>2052.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1056.95</t>
+          <t>1643.93</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1050.40</t>
+          <t>1633.32</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1009.16</t>
+          <t>1590.51</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1004.40</t>
+          <t>1567.86</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1826,42 +1826,42 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2322.02</t>
+          <t>3220.07</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2352.69</t>
+          <t>3296.29</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1902.71</t>
+          <t>2621.46</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1794.05</t>
+          <t>2583.40</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1338.47</t>
+          <t>2018.19</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1329.90</t>
+          <t>2005.22</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1308.31</t>
+          <t>1904.29</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1310.15</t>
+          <t>1900.02</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1871,42 +1871,42 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2372.07</t>
+          <t>3256.02</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>2428.06</t>
+          <t>3329.22</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>1934.77</t>
+          <t>2641.30</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>1841.60</t>
+          <t>2621.13</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>1393.30</t>
+          <t>2043.97</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>1384.69</t>
+          <t>2031.23</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>1347.83</t>
+          <t>1918.07</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>1336.95</t>
+          <t>1910.05</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1916,42 +1916,42 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2391.88</t>
+          <t>3275.12</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2445.22</t>
+          <t>3345.73</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>1945.75</t>
+          <t>2649.58</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>1856.33</t>
+          <t>2629.38</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>1398.65</t>
+          <t>2055.23</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>1394.07</t>
+          <t>2039.69</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>1359.18</t>
+          <t>1904.24</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1377.46</t>
+          <t>1906.07</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1961,42 +1961,42 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>2401.48</t>
+          <t>3289.58</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>2449.59</t>
+          <t>3357.29</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>1945.53</t>
+          <t>2651.31</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>1864.41</t>
+          <t>2634.85</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1396.85</t>
+          <t>2064.24</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>1388.28</t>
+          <t>2050.58</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>1363.12</t>
+          <t>1891.82</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>1357.66</t>
+          <t>1881.14</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -2006,42 +2006,42 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>2405.06</t>
+          <t>3299.46</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>2448.87</t>
+          <t>3368.78</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>1959.69</t>
+          <t>2654.01</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>1865.91</t>
+          <t>2642.07</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>1372.19</t>
+          <t>2070.86</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>1363.70</t>
+          <t>2057.20</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>1330.81</t>
+          <t>1895.66</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>1331.89</t>
+          <t>1886.00</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
@@ -2051,42 +2051,42 @@
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>2414.78</t>
+          <t>3311.66</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>2436.51</t>
+          <t>3380.54</t>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>1970.32</t>
+          <t>2663.30</t>
         </is>
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1868.04</t>
+          <t>2647.22</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>1372.72</t>
+          <t>2069.39</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>1364.26</t>
+          <t>2054.85</t>
         </is>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>1331.35</t>
+          <t>1901.50</t>
         </is>
       </c>
       <c r="BJ5" t="inlineStr">
         <is>
-          <t>1324.98</t>
+          <t>1889.82</t>
         </is>
       </c>
       <c r="BK5" t="inlineStr">
@@ -2096,42 +2096,42 @@
       </c>
       <c r="BL5" t="inlineStr">
         <is>
-          <t>2424.47</t>
+          <t>3329.04</t>
         </is>
       </c>
       <c r="BM5" t="inlineStr">
         <is>
-          <t>2447.72</t>
+          <t>3394.40</t>
         </is>
       </c>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>1983.12</t>
+          <t>2674.23</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>1877.72</t>
+          <t>2650.96</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr">
         <is>
-          <t>1379.51</t>
+          <t>2081.78</t>
         </is>
       </c>
       <c r="BQ5" t="inlineStr">
         <is>
-          <t>1370.98</t>
+          <t>2067.32</t>
         </is>
       </c>
       <c r="BR5" t="inlineStr">
         <is>
-          <t>1323.30</t>
+          <t>1912.05</t>
         </is>
       </c>
       <c r="BS5" t="inlineStr">
         <is>
-          <t>1333.42</t>
+          <t>1902.27</t>
         </is>
       </c>
       <c r="BT5" t="inlineStr">
@@ -2141,42 +2141,42 @@
       </c>
       <c r="BU5" t="inlineStr">
         <is>
-          <t>2511.97</t>
+          <t>3433.08</t>
         </is>
       </c>
       <c r="BV5" t="inlineStr">
         <is>
-          <t>2567.03</t>
+          <t>3495.44</t>
         </is>
       </c>
       <c r="BW5" t="inlineStr">
         <is>
-          <t>2042.46</t>
+          <t>2713.77</t>
         </is>
       </c>
       <c r="BX5" t="inlineStr">
         <is>
-          <t>1935.67</t>
+          <t>2705.86</t>
         </is>
       </c>
       <c r="BY5" t="inlineStr">
         <is>
-          <t>1445.65</t>
+          <t>2175.31</t>
         </is>
       </c>
       <c r="BZ5" t="inlineStr">
         <is>
-          <t>1447.40</t>
+          <t>2159.30</t>
         </is>
       </c>
       <c r="CA5" t="inlineStr">
         <is>
-          <t>1417.89</t>
+          <t>2005.76</t>
         </is>
       </c>
       <c r="CB5" t="inlineStr">
         <is>
-          <t>1426.22</t>
+          <t>1992.28</t>
         </is>
       </c>
       <c r="CC5" t="inlineStr">
@@ -2186,42 +2186,42 @@
       </c>
       <c r="CD5" t="inlineStr">
         <is>
-          <t>3276.46</t>
+          <t>4219.98</t>
         </is>
       </c>
       <c r="CE5" t="inlineStr">
         <is>
-          <t>3202.94</t>
+          <t>4179.55</t>
         </is>
       </c>
       <c r="CF5" t="inlineStr">
         <is>
-          <t>2722.20</t>
+          <t>3329.76</t>
         </is>
       </c>
       <c r="CG5" t="inlineStr">
         <is>
-          <t>2494.92</t>
+          <t>3250.86</t>
         </is>
       </c>
       <c r="CH5" t="inlineStr">
         <is>
-          <t>1916.20</t>
+          <t>2562.44</t>
         </is>
       </c>
       <c r="CI5" t="inlineStr">
         <is>
-          <t>1894.17</t>
+          <t>2522.50</t>
         </is>
       </c>
       <c r="CJ5" t="inlineStr">
         <is>
-          <t>1948.58</t>
+          <t>2553.70</t>
         </is>
       </c>
       <c r="CK5" t="inlineStr">
         <is>
-          <t>1951.84</t>
+          <t>2567.34</t>
         </is>
       </c>
       <c r="CL5" t="inlineStr">
@@ -2233,42 +2233,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1645.19</t>
+          <t>2288.32</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1639.29</t>
+          <t>2408.77</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>262.37</t>
+          <t>596.53</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1370.68</t>
+          <t>2070.14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1104.67</t>
+          <t>1645.54</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1097.89</t>
+          <t>1635.82</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>976.87</t>
+          <t>1534.28</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>976.28</t>
+          <t>1530.35</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2278,42 +2278,42 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2359.64</t>
+          <t>3031.25</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2308.01</t>
+          <t>3222.03</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1916.35</t>
+          <t>2578.63</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1917.14</t>
+          <t>2580.85</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1417.62</t>
+          <t>1959.64</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1410.50</t>
+          <t>1947.55</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1243.76</t>
+          <t>1802.21</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1238.83</t>
+          <t>1793.55</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -2323,42 +2323,42 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2387.66</t>
+          <t>3094.27</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2351.14</t>
+          <t>3263.11</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>1911.52</t>
+          <t>2577.71</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>1949.00</t>
+          <t>2636.42</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>1438.24</t>
+          <t>1997.77</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>1429.73</t>
+          <t>1996.56</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1265.11</t>
+          <t>1835.06</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>1257.10</t>
+          <t>1814.71</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -2368,42 +2368,42 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2399.48</t>
+          <t>3114.82</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2438.07</t>
+          <t>3282.86</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>1918.28</t>
+          <t>2590.20</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>1959.50</t>
+          <t>2656.66</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>1447.44</t>
+          <t>2013.92</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>1439.07</t>
+          <t>2002.11</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>1276.95</t>
+          <t>1838.89</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1268.43</t>
+          <t>1827.76</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -2413,42 +2413,42 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>2406.66</t>
+          <t>3106.80</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>2440.90</t>
+          <t>3295.26</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>1925.86</t>
+          <t>2600.51</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>1968.83</t>
+          <t>2669.31</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1452.76</t>
+          <t>2020.24</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>1444.83</t>
+          <t>2011.66</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>1282.56</t>
+          <t>1852.58</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>1273.43</t>
+          <t>1840.45</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -2458,42 +2458,42 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>2412.81</t>
+          <t>3078.10</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>2441.83</t>
+          <t>3243.19</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>1932.58</t>
+          <t>2608.73</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>1973.64</t>
+          <t>2676.90</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>1456.34</t>
+          <t>2013.77</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>1449.21</t>
+          <t>2009.65</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>1288.02</t>
+          <t>1861.38</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>1281.78</t>
+          <t>1849.21</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
@@ -2503,42 +2503,42 @@
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>2418.94</t>
+          <t>3086.22</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>2443.85</t>
+          <t>3259.92</t>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>1939.39</t>
+          <t>2621.48</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1978.60</t>
+          <t>2682.80</t>
         </is>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>1460.27</t>
+          <t>2021.89</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>1453.81</t>
+          <t>2014.72</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>1293.57</t>
+          <t>1869.89</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr">
         <is>
-          <t>1287.37</t>
+          <t>1857.70</t>
         </is>
       </c>
       <c r="BK6" t="inlineStr">
@@ -2548,42 +2548,42 @@
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>2429.87</t>
+          <t>3099.96</t>
         </is>
       </c>
       <c r="BM6" t="inlineStr">
         <is>
-          <t>2453.79</t>
+          <t>3278.95</t>
         </is>
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>1950.76</t>
+          <t>2635.66</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>1988.40</t>
+          <t>2695.87</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
-          <t>1469.47</t>
+          <t>2024.07</t>
         </is>
       </c>
       <c r="BQ6" t="inlineStr">
         <is>
-          <t>1463.29</t>
+          <t>2021.92</t>
         </is>
       </c>
       <c r="BR6" t="inlineStr">
         <is>
-          <t>1304.04</t>
+          <t>1883.44</t>
         </is>
       </c>
       <c r="BS6" t="inlineStr">
         <is>
-          <t>1297.93</t>
+          <t>1871.27</t>
         </is>
       </c>
       <c r="BT6" t="inlineStr">
@@ -2593,42 +2593,42 @@
       </c>
       <c r="BU6" t="inlineStr">
         <is>
-          <t>2514.79</t>
+          <t>3207.88</t>
         </is>
       </c>
       <c r="BV6" t="inlineStr">
         <is>
-          <t>2534.47</t>
+          <t>3372.27</t>
         </is>
       </c>
       <c r="BW6" t="inlineStr">
         <is>
-          <t>1999.61</t>
+          <t>2684.04</t>
         </is>
       </c>
       <c r="BX6" t="inlineStr">
         <is>
-          <t>2036.26</t>
+          <t>2749.23</t>
         </is>
       </c>
       <c r="BY6" t="inlineStr">
         <is>
-          <t>1542.49</t>
+          <t>2101.41</t>
         </is>
       </c>
       <c r="BZ6" t="inlineStr">
         <is>
-          <t>1537.35</t>
+          <t>2098.50</t>
         </is>
       </c>
       <c r="CA6" t="inlineStr">
         <is>
-          <t>1376.95</t>
+          <t>1958.51</t>
         </is>
       </c>
       <c r="CB6" t="inlineStr">
         <is>
-          <t>1370.97</t>
+          <t>1946.34</t>
         </is>
       </c>
       <c r="CC6" t="inlineStr">
@@ -2638,42 +2638,42 @@
       </c>
       <c r="CD6" t="inlineStr">
         <is>
-          <t>3103.20</t>
+          <t>3950.53</t>
         </is>
       </c>
       <c r="CE6" t="inlineStr">
         <is>
-          <t>3101.52</t>
+          <t>4081.43</t>
         </is>
       </c>
       <c r="CF6" t="inlineStr">
         <is>
-          <t>2478.46</t>
+          <t>3240.85</t>
         </is>
       </c>
       <c r="CG6" t="inlineStr">
         <is>
-          <t>2439.37</t>
+          <t>3256.97</t>
         </is>
       </c>
       <c r="CH6" t="inlineStr">
         <is>
-          <t>1893.81</t>
+          <t>2435.31</t>
         </is>
       </c>
       <c r="CI6" t="inlineStr">
         <is>
-          <t>1869.11</t>
+          <t>2501.79</t>
         </is>
       </c>
       <c r="CJ6" t="inlineStr">
         <is>
-          <t>1788.45</t>
+          <t>2407.21</t>
         </is>
       </c>
       <c r="CK6" t="inlineStr">
         <is>
-          <t>1786.99</t>
+          <t>2416.83</t>
         </is>
       </c>
       <c r="CL6" t="inlineStr">
@@ -2685,42 +2685,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1761.71</t>
+          <t>2269.29</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1929.85</t>
+          <t>2429.83</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>45.06</t>
+          <t>1179.97</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1531.14</t>
+          <t>2049.71</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1245.73</t>
+          <t>1631.82</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1238.03</t>
+          <t>1622.61</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1079.34</t>
+          <t>1434.20</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1093.87</t>
+          <t>1428.57</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2730,42 +2730,42 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2488.17</t>
+          <t>3004.06</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2675.30</t>
+          <t>3194.69</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2064.46</t>
+          <t>2549.77</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2074.33</t>
+          <t>2591.12</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1581.91</t>
+          <t>1956.09</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1571.82</t>
+          <t>1941.68</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1390.03</t>
+          <t>1743.34</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1386.34</t>
+          <t>1732.16</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2775,42 +2775,42 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2518.04</t>
+          <t>3032.48</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>2702.40</t>
+          <t>3227.39</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2015.31</t>
+          <t>2550.84</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2109.92</t>
+          <t>2626.92</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>1612.07</t>
+          <t>1978.47</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>1602.17</t>
+          <t>1964.12</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>1418.61</t>
+          <t>1778.35</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>1415.54</t>
+          <t>1764.49</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2820,42 +2820,42 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2527.34</t>
+          <t>3046.52</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2708.86</t>
+          <t>3243.62</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>2019.87</t>
+          <t>2556.66</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2119.68</t>
+          <t>2638.98</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>1624.64</t>
+          <t>1992.36</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>1614.82</t>
+          <t>1978.35</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>1430.58</t>
+          <t>1798.88</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1426.98</t>
+          <t>1785.59</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2865,42 +2865,42 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>2531.64</t>
+          <t>3060.08</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>2713.38</t>
+          <t>3254.88</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>2024.76</t>
+          <t>2566.92</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>2127.19</t>
+          <t>2648.83</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1630.47</t>
+          <t>2009.86</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>1620.58</t>
+          <t>1996.73</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>1437.27</t>
+          <t>1808.00</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>1432.32</t>
+          <t>1795.51</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2910,42 +2910,42 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>2526.02</t>
+          <t>3071.06</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>2717.20</t>
+          <t>3266.80</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>2030.48</t>
+          <t>2575.85</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>2132.74</t>
+          <t>2657.19</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>1635.43</t>
+          <t>2025.87</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>1625.53</t>
+          <t>2010.60</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>1442.01</t>
+          <t>1815.74</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>1435.70</t>
+          <t>1803.28</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
@@ -2955,42 +2955,42 @@
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>2530.90</t>
+          <t>3082.83</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>2721.31</t>
+          <t>3277.94</t>
         </is>
       </c>
       <c r="BE7" t="inlineStr">
         <is>
-          <t>2035.66</t>
+          <t>2588.51</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2137.53</t>
+          <t>2665.47</t>
         </is>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>1638.80</t>
+          <t>2039.92</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>1628.82</t>
+          <t>2026.74</t>
         </is>
       </c>
       <c r="BI7" t="inlineStr">
         <is>
-          <t>1446.21</t>
+          <t>1822.85</t>
         </is>
       </c>
       <c r="BJ7" t="inlineStr">
         <is>
-          <t>1439.95</t>
+          <t>1810.43</t>
         </is>
       </c>
       <c r="BK7" t="inlineStr">
@@ -3000,42 +3000,42 @@
       </c>
       <c r="BL7" t="inlineStr">
         <is>
-          <t>2541.44</t>
+          <t>3107.06</t>
         </is>
       </c>
       <c r="BM7" t="inlineStr">
         <is>
-          <t>2731.31</t>
+          <t>3294.15</t>
         </is>
       </c>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>2045.29</t>
+          <t>2602.45</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr">
         <is>
-          <t>2147.04</t>
+          <t>2678.66</t>
         </is>
       </c>
       <c r="BP7" t="inlineStr">
         <is>
-          <t>1647.36</t>
+          <t>2055.49</t>
         </is>
       </c>
       <c r="BQ7" t="inlineStr">
         <is>
-          <t>1637.39</t>
+          <t>2043.09</t>
         </is>
       </c>
       <c r="BR7" t="inlineStr">
         <is>
-          <t>1455.89</t>
+          <t>1832.06</t>
         </is>
       </c>
       <c r="BS7" t="inlineStr">
         <is>
-          <t>1449.81</t>
+          <t>1821.27</t>
         </is>
       </c>
       <c r="BT7" t="inlineStr">
@@ -3045,42 +3045,42 @@
       </c>
       <c r="BU7" t="inlineStr">
         <is>
-          <t>2631.35</t>
+          <t>3202.63</t>
         </is>
       </c>
       <c r="BV7" t="inlineStr">
         <is>
-          <t>2824.89</t>
+          <t>3382.93</t>
         </is>
       </c>
       <c r="BW7" t="inlineStr">
         <is>
-          <t>2095.53</t>
+          <t>2649.13</t>
         </is>
       </c>
       <c r="BX7" t="inlineStr">
         <is>
-          <t>2196.00</t>
+          <t>2729.26</t>
         </is>
       </c>
       <c r="BY7" t="inlineStr">
         <is>
-          <t>1721.01</t>
+          <t>2137.55</t>
         </is>
       </c>
       <c r="BZ7" t="inlineStr">
         <is>
-          <t>1711.31</t>
+          <t>2125.13</t>
         </is>
       </c>
       <c r="CA7" t="inlineStr">
         <is>
-          <t>1527.67</t>
+          <t>1911.62</t>
         </is>
       </c>
       <c r="CB7" t="inlineStr">
         <is>
-          <t>1521.64</t>
+          <t>1899.38</t>
         </is>
       </c>
       <c r="CC7" t="inlineStr">
@@ -3090,42 +3090,42 @@
       </c>
       <c r="CD7" t="inlineStr">
         <is>
-          <t>3172.81</t>
+          <t>3826.67</t>
         </is>
       </c>
       <c r="CE7" t="inlineStr">
         <is>
-          <t>3340.76</t>
+          <t>3997.57</t>
         </is>
       </c>
       <c r="CF7" t="inlineStr">
         <is>
-          <t>2651.42</t>
+          <t>3231.65</t>
         </is>
       </c>
       <c r="CG7" t="inlineStr">
         <is>
-          <t>2754.78</t>
+          <t>3296.56</t>
         </is>
       </c>
       <c r="CH7" t="inlineStr">
         <is>
-          <t>2044.28</t>
+          <t>2474.16</t>
         </is>
       </c>
       <c r="CI7" t="inlineStr">
         <is>
-          <t>2017.26</t>
+          <t>2450.75</t>
         </is>
       </c>
       <c r="CJ7" t="inlineStr">
         <is>
-          <t>1876.57</t>
+          <t>2370.74</t>
         </is>
       </c>
       <c r="CK7" t="inlineStr">
         <is>
-          <t>1870.89</t>
+          <t>2375.18</t>
         </is>
       </c>
       <c r="CL7" t="inlineStr">
@@ -3137,42 +3137,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1499.60</t>
+          <t>2225.04</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1668.11</t>
+          <t>2382.02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>422.69</t>
+          <t>874.43</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1294.83</t>
+          <t>1994.93</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1032.74</t>
+          <t>1578.60</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1029.96</t>
+          <t>1567.89</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>892.69</t>
+          <t>1403.74</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>893.87</t>
+          <t>1397.73</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3182,42 +3182,42 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2152.80</t>
+          <t>2915.42</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2340.77</t>
+          <t>3082.21</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1754.38</t>
+          <t>2417.85</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1773.93</t>
+          <t>2457.71</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1337.83</t>
+          <t>1908.28</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1334.33</t>
+          <t>1894.02</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1158.30</t>
+          <t>1700.36</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1151.79</t>
+          <t>1688.78</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -3227,42 +3227,42 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2167.30</t>
+          <t>2946.40</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>2352.73</t>
+          <t>3113.20</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>1730.91</t>
+          <t>2425.87</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>1790.97</t>
+          <t>2493.79</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>1359.95</t>
+          <t>1931.75</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>1355.72</t>
+          <t>1917.47</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>1176.96</t>
+          <t>1723.64</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>1168.81</t>
+          <t>1710.76</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -3272,42 +3272,42 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2175.72</t>
+          <t>2967.36</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2359.19</t>
+          <t>3133.61</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>1728.66</t>
+          <t>2440.43</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>1796.36</t>
+          <t>2509.48</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>1367.88</t>
+          <t>1948.39</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>1363.81</t>
+          <t>1934.12</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>1185.63</t>
+          <t>1738.17</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1176.88</t>
+          <t>1725.52</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -3317,42 +3317,42 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>2182.06</t>
+          <t>2984.14</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>2364.10</t>
+          <t>3149.94</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>1721.28</t>
+          <t>2453.19</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>1803.66</t>
+          <t>2521.56</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1371.38</t>
+          <t>1961.72</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>1367.33</t>
+          <t>1947.48</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>1191.00</t>
+          <t>1749.27</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>1182.04</t>
+          <t>1736.60</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -3362,42 +3362,42 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>2187.46</t>
+          <t>2998.53</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>2368.31</t>
+          <t>3163.95</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>1717.86</t>
+          <t>2464.15</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>1807.08</t>
+          <t>2531.74</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>1373.24</t>
+          <t>1973.11</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>1369.40</t>
+          <t>1958.89</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>1195.12</t>
+          <t>1746.15</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>1189.04</t>
+          <t>1732.01</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
@@ -3407,42 +3407,42 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>2192.91</t>
+          <t>3012.04</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>2373.03</t>
+          <t>3177.15</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>1722.21</t>
+          <t>2478.47</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1810.74</t>
+          <t>2541.51</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>1375.02</t>
+          <t>1984.19</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>1371.58</t>
+          <t>1970.00</t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>1199.29</t>
+          <t>1757.19</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>1193.24</t>
+          <t>1743.06</t>
         </is>
       </c>
       <c r="BK8" t="inlineStr">
@@ -3452,42 +3452,42 @@
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>2203.20</t>
+          <t>3029.98</t>
         </is>
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>2383.04</t>
+          <t>3194.94</t>
         </is>
       </c>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>1730.90</t>
+          <t>2493.47</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr">
         <is>
-          <t>1819.06</t>
+          <t>2555.63</t>
         </is>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
-          <t>1380.24</t>
+          <t>2001.84</t>
         </is>
       </c>
       <c r="BQ8" t="inlineStr">
         <is>
-          <t>1377.30</t>
+          <t>1987.71</t>
         </is>
       </c>
       <c r="BR8" t="inlineStr">
         <is>
-          <t>1207.72</t>
+          <t>1774.49</t>
         </is>
       </c>
       <c r="BS8" t="inlineStr">
         <is>
-          <t>1201.79</t>
+          <t>1760.39</t>
         </is>
       </c>
       <c r="BT8" t="inlineStr">
@@ -3497,42 +3497,42 @@
       </c>
       <c r="BU8" t="inlineStr">
         <is>
-          <t>2286.24</t>
+          <t>3123.87</t>
         </is>
       </c>
       <c r="BV8" t="inlineStr">
         <is>
-          <t>2468.82</t>
+          <t>3285.24</t>
         </is>
       </c>
       <c r="BW8" t="inlineStr">
         <is>
-          <t>1772.78</t>
+          <t>2537.47</t>
         </is>
       </c>
       <c r="BX8" t="inlineStr">
         <is>
-          <t>1858.48</t>
+          <t>2602.77</t>
         </is>
       </c>
       <c r="BY8" t="inlineStr">
         <is>
-          <t>1440.83</t>
+          <t>2088.24</t>
         </is>
       </c>
       <c r="BZ8" t="inlineStr">
         <is>
-          <t>1439.40</t>
+          <t>2075.67</t>
         </is>
       </c>
       <c r="CA8" t="inlineStr">
         <is>
-          <t>1273.73</t>
+          <t>1864.80</t>
         </is>
       </c>
       <c r="CB8" t="inlineStr">
         <is>
-          <t>1267.65</t>
+          <t>1850.50</t>
         </is>
       </c>
       <c r="CC8" t="inlineStr">
@@ -3542,42 +3542,42 @@
       </c>
       <c r="CD8" t="inlineStr">
         <is>
-          <t>2735.97</t>
+          <t>3598.96</t>
         </is>
       </c>
       <c r="CE8" t="inlineStr">
         <is>
-          <t>3012.46</t>
+          <t>3742.94</t>
         </is>
       </c>
       <c r="CF8" t="inlineStr">
         <is>
-          <t>2217.56</t>
+          <t>2969.75</t>
         </is>
       </c>
       <c r="CG8" t="inlineStr">
         <is>
-          <t>2294.78</t>
+          <t>3022.93</t>
         </is>
       </c>
       <c r="CH8" t="inlineStr">
         <is>
-          <t>1728.92</t>
+          <t>2369.32</t>
         </is>
       </c>
       <c r="CI8" t="inlineStr">
         <is>
-          <t>1706.37</t>
+          <t>2338.74</t>
         </is>
       </c>
       <c r="CJ8" t="inlineStr">
         <is>
-          <t>1589.10</t>
+          <t>2293.55</t>
         </is>
       </c>
       <c r="CK8" t="inlineStr">
         <is>
-          <t>1589.71</t>
+          <t>2294.45</t>
         </is>
       </c>
       <c r="CL8" t="inlineStr">
@@ -3589,42 +3589,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1585.98</t>
+          <t>2133.58</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1747.13</t>
+          <t>2284.24</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>541.64</t>
+          <t>1129.41</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1378.95</t>
+          <t>1945.05</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1063.42</t>
+          <t>1556.47</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1056.83</t>
+          <t>1547.45</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>903.28</t>
+          <t>1394.42</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>967.79</t>
+          <t>1391.86</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3634,42 +3634,42 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2235.51</t>
+          <t>2797.20</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2407.76</t>
+          <t>2953.48</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1818.66</t>
+          <t>2353.99</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1838.24</t>
+          <t>2379.79</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1330.64</t>
+          <t>1856.26</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1322.31</t>
+          <t>1844.18</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1152.47</t>
+          <t>1662.30</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1149.48</t>
+          <t>1652.98</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -3679,42 +3679,42 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2246.01</t>
+          <t>2824.43</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>2416.81</t>
+          <t>2979.86</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>1792.69</t>
+          <t>2347.93</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>1846.01</t>
+          <t>2411.14</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>1336.64</t>
+          <t>1873.81</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>1327.99</t>
+          <t>1861.77</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>1164.08</t>
+          <t>1681.80</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>1156.60</t>
+          <t>1670.06</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -3724,42 +3724,42 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2252.93</t>
+          <t>2845.23</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2420.94</t>
+          <t>2997.29</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>1792.41</t>
+          <t>2358.89</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>1851.00</t>
+          <t>2425.72</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>1341.92</t>
+          <t>1885.50</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>1333.15</t>
+          <t>1874.51</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>1170.92</t>
+          <t>1695.58</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1162.29</t>
+          <t>1683.49</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -3769,42 +3769,42 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>2258.42</t>
+          <t>2861.87</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>2425.67</t>
+          <t>3012.76</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>1796.11</t>
+          <t>2371.07</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>1857.90</t>
+          <t>2437.02</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1346.08</t>
+          <t>1894.07</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>1337.24</t>
+          <t>1884.52</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>1175.96</t>
+          <t>1706.20</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>1167.03</t>
+          <t>1694.08</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -3814,42 +3814,42 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>2263.12</t>
+          <t>2876.07</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>2429.75</t>
+          <t>3026.01</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>1799.91</t>
+          <t>2381.65</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>1861.17</t>
+          <t>2446.55</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>1350.40</t>
+          <t>1902.49</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>1340.78</t>
+          <t>1891.94</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>1180.18</t>
+          <t>1715.23</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>1174.11</t>
+          <t>1703.12</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
@@ -3859,42 +3859,42 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>2268.05</t>
+          <t>2889.32</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>2434.17</t>
+          <t>3038.44</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>1804.17</t>
+          <t>2395.43</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1864.90</t>
+          <t>2455.71</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>1355.53</t>
+          <t>1910.73</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>1345.55</t>
+          <t>1900.23</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>1184.65</t>
+          <t>1723.98</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>1178.66</t>
+          <t>1711.88</t>
         </is>
       </c>
       <c r="BK9" t="inlineStr">
@@ -3904,42 +3904,42 @@
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>2278.08</t>
+          <t>2906.79</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>2443.95</t>
+          <t>3057.40</t>
         </is>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>1813.04</t>
+          <t>2410.08</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
         <is>
-          <t>1873.53</t>
+          <t>2469.24</t>
         </is>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
-          <t>1365.40</t>
+          <t>1928.21</t>
         </is>
       </c>
       <c r="BQ9" t="inlineStr">
         <is>
-          <t>1355.47</t>
+          <t>1916.33</t>
         </is>
       </c>
       <c r="BR9" t="inlineStr">
         <is>
-          <t>1193.96</t>
+          <t>1737.85</t>
         </is>
       </c>
       <c r="BS9" t="inlineStr">
         <is>
-          <t>1188.06</t>
+          <t>1725.79</t>
         </is>
       </c>
       <c r="BT9" t="inlineStr">
@@ -3949,42 +3949,42 @@
       </c>
       <c r="BU9" t="inlineStr">
         <is>
-          <t>2360.02</t>
+          <t>2991.89</t>
         </is>
       </c>
       <c r="BV9" t="inlineStr">
         <is>
-          <t>2528.36</t>
+          <t>3143.14</t>
         </is>
       </c>
       <c r="BW9" t="inlineStr">
         <is>
-          <t>1855.99</t>
+          <t>2453.02</t>
         </is>
       </c>
       <c r="BX9" t="inlineStr">
         <is>
-          <t>1933.54</t>
+          <t>2515.05</t>
         </is>
       </c>
       <c r="BY9" t="inlineStr">
         <is>
-          <t>1436.80</t>
+          <t>2003.51</t>
         </is>
       </c>
       <c r="BZ9" t="inlineStr">
         <is>
-          <t>1427.20</t>
+          <t>1991.66</t>
         </is>
       </c>
       <c r="CA9" t="inlineStr">
         <is>
-          <t>1261.88</t>
+          <t>1813.38</t>
         </is>
       </c>
       <c r="CB9" t="inlineStr">
         <is>
-          <t>1255.83</t>
+          <t>1801.31</t>
         </is>
       </c>
       <c r="CC9" t="inlineStr">
@@ -3994,42 +3994,42 @@
       </c>
       <c r="CD9" t="inlineStr">
         <is>
-          <t>2815.48</t>
+          <t>3461.59</t>
         </is>
       </c>
       <c r="CE9" t="inlineStr">
         <is>
-          <t>3068.96</t>
+          <t>3665.60</t>
         </is>
       </c>
       <c r="CF9" t="inlineStr">
         <is>
-          <t>2289.83</t>
+          <t>2912.62</t>
         </is>
       </c>
       <c r="CG9" t="inlineStr">
         <is>
-          <t>2353.80</t>
+          <t>2959.72</t>
         </is>
       </c>
       <c r="CH9" t="inlineStr">
         <is>
-          <t>1782.15</t>
+          <t>2274.86</t>
         </is>
       </c>
       <c r="CI9" t="inlineStr">
         <is>
-          <t>1763.81</t>
+          <t>2246.00</t>
         </is>
       </c>
       <c r="CJ9" t="inlineStr">
         <is>
-          <t>1646.26</t>
+          <t>2207.46</t>
         </is>
       </c>
       <c r="CK9" t="inlineStr">
         <is>
-          <t>1644.46</t>
+          <t>2208.72</t>
         </is>
       </c>
       <c r="CL9" t="inlineStr">
@@ -4041,42 +4041,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1619.58</t>
+          <t>2084.82</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1707.59</t>
+          <t>2230.01</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>740.83</t>
+          <t>1379.37</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1361.49</t>
+          <t>1873.40</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1051.85</t>
+          <t>1443.43</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1045.61</t>
+          <t>1435.25</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>967.59</t>
+          <t>1340.03</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>979.38</t>
+          <t>1368.14</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4086,42 +4086,42 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2250.19</t>
+          <t>2794.37</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2313.27</t>
+          <t>2950.21</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1844.10</t>
+          <t>2342.83</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1807.75</t>
+          <t>2338.27</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1307.97</t>
+          <t>1748.47</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1304.42</t>
+          <t>1737.10</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1191.94</t>
+          <t>1616.06</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1208.51</t>
+          <t>1612.27</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -4131,42 +4131,42 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2251.87</t>
+          <t>2825.41</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>2302.56</t>
+          <t>2982.42</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>1803.31</t>
+          <t>2333.88</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>1809.22</t>
+          <t>2379.32</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>1304.58</t>
+          <t>1766.89</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>1297.35</t>
+          <t>1760.62</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>1185.43</t>
+          <t>1622.81</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>1186.06</t>
+          <t>1617.95</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -4176,42 +4176,42 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2254.23</t>
+          <t>2845.04</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2301.46</t>
+          <t>3000.92</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>1797.11</t>
+          <t>2349.64</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>1810.06</t>
+          <t>2399.97</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>1306.62</t>
+          <t>1777.61</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>1299.22</t>
+          <t>1771.39</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>1188.50</t>
+          <t>1639.74</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1181.73</t>
+          <t>1629.44</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -4221,42 +4221,42 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>2256.65</t>
+          <t>2861.78</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>2301.39</t>
+          <t>3016.21</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>1798.57</t>
+          <t>2364.77</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>1818.25</t>
+          <t>2418.82</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1309.59</t>
+          <t>1791.57</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>1302.16</t>
+          <t>1785.50</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>1191.70</t>
+          <t>1649.59</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>1184.29</t>
+          <t>1643.24</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -4266,42 +4266,42 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>2259.00</t>
+          <t>2875.79</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>2302.35</t>
+          <t>3030.49</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>1801.11</t>
+          <t>2380.30</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>1822.44</t>
+          <t>2431.76</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>1312.66</t>
+          <t>1804.43</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>1305.26</t>
+          <t>1796.66</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>1194.87</t>
+          <t>1660.03</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>1190.15</t>
+          <t>1652.07</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
@@ -4311,42 +4311,42 @@
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>2261.97</t>
+          <t>2890.29</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>2304.31</t>
+          <t>3043.96</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>1804.48</t>
+          <t>2397.84</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1826.95</t>
+          <t>2447.65</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>1316.34</t>
+          <t>1815.56</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>1308.99</t>
+          <t>1807.59</t>
         </is>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>1198.61</t>
+          <t>1669.89</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>1193.95</t>
+          <t>1660.18</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
@@ -4356,42 +4356,42 @@
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>2270.20</t>
+          <t>2909.47</t>
         </is>
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>2312.09</t>
+          <t>3063.07</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>1812.58</t>
+          <t>2414.10</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr">
         <is>
-          <t>1836.02</t>
+          <t>2463.11</t>
         </is>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
-          <t>1325.29</t>
+          <t>1832.03</t>
         </is>
       </c>
       <c r="BQ10" t="inlineStr">
         <is>
-          <t>1318.05</t>
+          <t>1824.31</t>
         </is>
       </c>
       <c r="BR10" t="inlineStr">
         <is>
-          <t>1207.30</t>
+          <t>1684.03</t>
         </is>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
-          <t>1202.72</t>
+          <t>1673.73</t>
         </is>
       </c>
       <c r="BT10" t="inlineStr">
@@ -4401,42 +4401,42 @@
       </c>
       <c r="BU10" t="inlineStr">
         <is>
-          <t>2350.62</t>
+          <t>3005.69</t>
         </is>
       </c>
       <c r="BV10" t="inlineStr">
         <is>
-          <t>2391.76</t>
+          <t>3160.13</t>
         </is>
       </c>
       <c r="BW10" t="inlineStr">
         <is>
-          <t>1853.64</t>
+          <t>2465.83</t>
         </is>
       </c>
       <c r="BX10" t="inlineStr">
         <is>
-          <t>1873.45</t>
+          <t>2516.57</t>
         </is>
       </c>
       <c r="BY10" t="inlineStr">
         <is>
-          <t>1391.86</t>
+          <t>1917.26</t>
         </is>
       </c>
       <c r="BZ10" t="inlineStr">
         <is>
-          <t>1384.86</t>
+          <t>1911.53</t>
         </is>
       </c>
       <c r="CA10" t="inlineStr">
         <is>
-          <t>1274.16</t>
+          <t>1760.70</t>
         </is>
       </c>
       <c r="CB10" t="inlineStr">
         <is>
-          <t>1269.40</t>
+          <t>1750.39</t>
         </is>
       </c>
       <c r="CC10" t="inlineStr">
@@ -4446,42 +4446,42 @@
       </c>
       <c r="CD10" t="inlineStr">
         <is>
-          <t>2767.10</t>
+          <t>3346.36</t>
         </is>
       </c>
       <c r="CE10" t="inlineStr">
         <is>
-          <t>2934.77</t>
+          <t>3698.94</t>
         </is>
       </c>
       <c r="CF10" t="inlineStr">
         <is>
-          <t>2321.22</t>
+          <t>2950.01</t>
         </is>
       </c>
       <c r="CG10" t="inlineStr">
         <is>
-          <t>2326.06</t>
+          <t>2989.47</t>
         </is>
       </c>
       <c r="CH10" t="inlineStr">
         <is>
-          <t>1731.93</t>
+          <t>2228.55</t>
         </is>
       </c>
       <c r="CI10" t="inlineStr">
         <is>
-          <t>1712.54</t>
+          <t>2198.59</t>
         </is>
       </c>
       <c r="CJ10" t="inlineStr">
         <is>
-          <t>1671.49</t>
+          <t>2195.34</t>
         </is>
       </c>
       <c r="CK10" t="inlineStr">
         <is>
-          <t>1672.65</t>
+          <t>2200.64</t>
         </is>
       </c>
       <c r="CL10" t="inlineStr">
@@ -4493,42 +4493,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1708.30</t>
+          <t>2279.51</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1765.59</t>
+          <t>2422.63</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>877.73</t>
+          <t>1426.73</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1460.37</t>
+          <t>2052.68</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1168.09</t>
+          <t>1641.65</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1165.05</t>
+          <t>1632.39</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1132.28</t>
+          <t>1477.97</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1141.76</t>
+          <t>1485.21</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -4538,42 +4538,42 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2329.44</t>
+          <t>2971.72</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2341.37</t>
+          <t>3116.99</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1967.71</t>
+          <t>2524.29</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1850.01</t>
+          <t>2492.34</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1414.13</t>
+          <t>1947.90</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1407.41</t>
+          <t>1935.49</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1310.91</t>
+          <t>1761.69</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1332.97</t>
+          <t>1752.35</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -4583,42 +4583,42 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2331.20</t>
+          <t>2998.64</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>2316.19</t>
+          <t>3149.52</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>1941.98</t>
+          <t>2511.47</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>1821.49</t>
+          <t>2529.82</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>1410.22</t>
+          <t>1968.27</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>1403.03</t>
+          <t>1955.86</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>1292.36</t>
+          <t>1779.54</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>1288.52</t>
+          <t>1767.21</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -4628,42 +4628,42 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2332.98</t>
+          <t>3021.67</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2315.99</t>
+          <t>3173.18</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>1942.28</t>
+          <t>2520.51</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>1827.23</t>
+          <t>2547.64</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>1410.55</t>
+          <t>1981.78</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>1403.78</t>
+          <t>1969.42</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>1298.41</t>
+          <t>1794.49</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1291.01</t>
+          <t>1777.67</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -4673,42 +4673,42 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>2335.30</t>
+          <t>3040.54</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>2320.23</t>
+          <t>3192.51</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>1948.91</t>
+          <t>2532.76</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>1818.49</t>
+          <t>2562.18</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>1410.73</t>
+          <t>1993.24</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>1406.00</t>
+          <t>1980.90</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>1304.35</t>
+          <t>1803.85</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>1296.42</t>
+          <t>1790.55</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -4718,42 +4718,42 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>2337.86</t>
+          <t>3056.73</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>2325.06</t>
+          <t>3209.16</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>1956.08</t>
+          <t>2544.93</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>1820.84</t>
+          <t>2574.53</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>1413.22</t>
+          <t>2002.92</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>1408.62</t>
+          <t>1990.60</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>1310.06</t>
+          <t>1812.12</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>1304.61</t>
+          <t>1798.75</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
@@ -4763,42 +4763,42 @@
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>2340.70</t>
+          <t>3071.94</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>2330.38</t>
+          <t>3224.77</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>1963.41</t>
+          <t>2560.45</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1825.36</t>
+          <t>2586.31</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>1418.13</t>
+          <t>2012.34</t>
         </is>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>1412.37</t>
+          <t>2000.04</t>
         </is>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>1315.87</t>
+          <t>1820.49</t>
         </is>
       </c>
       <c r="BJ11" t="inlineStr">
         <is>
-          <t>1310.43</t>
+          <t>1807.12</t>
         </is>
       </c>
       <c r="BK11" t="inlineStr">
@@ -4808,42 +4808,42 @@
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>2347.65</t>
+          <t>3091.88</t>
         </is>
       </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>2340.14</t>
+          <t>3245.30</t>
         </is>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>1974.81</t>
+          <t>2577.25</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>1834.03</t>
+          <t>2602.76</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
-          <t>1428.95</t>
+          <t>2027.32</t>
         </is>
       </c>
       <c r="BQ11" t="inlineStr">
         <is>
-          <t>1421.83</t>
+          <t>2015.07</t>
         </is>
       </c>
       <c r="BR11" t="inlineStr">
         <is>
-          <t>1326.08</t>
+          <t>1835.50</t>
         </is>
       </c>
       <c r="BS11" t="inlineStr">
         <is>
-          <t>1320.71</t>
+          <t>1822.18</t>
         </is>
       </c>
       <c r="BT11" t="inlineStr">
@@ -4853,42 +4853,42 @@
       </c>
       <c r="BU11" t="inlineStr">
         <is>
-          <t>2424.16</t>
+          <t>3183.09</t>
         </is>
       </c>
       <c r="BV11" t="inlineStr">
         <is>
-          <t>2412.30</t>
+          <t>3339.62</t>
         </is>
       </c>
       <c r="BW11" t="inlineStr">
         <is>
-          <t>2020.17</t>
+          <t>2623.48</t>
         </is>
       </c>
       <c r="BX11" t="inlineStr">
         <is>
-          <t>1873.29</t>
+          <t>2653.05</t>
         </is>
       </c>
       <c r="BY11" t="inlineStr">
         <is>
-          <t>1473.09</t>
+          <t>2107.78</t>
         </is>
       </c>
       <c r="BZ11" t="inlineStr">
         <is>
-          <t>1477.49</t>
+          <t>2095.55</t>
         </is>
       </c>
       <c r="CA11" t="inlineStr">
         <is>
-          <t>1395.77</t>
+          <t>1920.66</t>
         </is>
       </c>
       <c r="CB11" t="inlineStr">
         <is>
-          <t>1390.12</t>
+          <t>1907.30</t>
         </is>
       </c>
       <c r="CC11" t="inlineStr">
@@ -4898,42 +4898,42 @@
       </c>
       <c r="CD11" t="inlineStr">
         <is>
-          <t>2847.83</t>
+          <t>3677.51</t>
         </is>
       </c>
       <c r="CE11" t="inlineStr">
         <is>
-          <t>2875.99</t>
+          <t>3820.04</t>
         </is>
       </c>
       <c r="CF11" t="inlineStr">
         <is>
-          <t>2510.47</t>
+          <t>3097.89</t>
         </is>
       </c>
       <c r="CG11" t="inlineStr">
         <is>
-          <t>2367.04</t>
+          <t>3089.88</t>
         </is>
       </c>
       <c r="CH11" t="inlineStr">
         <is>
-          <t>1750.11</t>
+          <t>2414.97</t>
         </is>
       </c>
       <c r="CI11" t="inlineStr">
         <is>
-          <t>1739.94</t>
+          <t>2384.68</t>
         </is>
       </c>
       <c r="CJ11" t="inlineStr">
         <is>
-          <t>1812.16</t>
+          <t>2347.89</t>
         </is>
       </c>
       <c r="CK11" t="inlineStr">
         <is>
-          <t>1812.79</t>
+          <t>2350.23</t>
         </is>
       </c>
       <c r="CL11" t="inlineStr">
@@ -4945,42 +4945,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2099.40</t>
+          <t>2371.22</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2192.96</t>
+          <t>2522.45</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1185.16</t>
+          <t>1669.99</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1798.86</t>
+          <t>2090.68</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1445.25</t>
+          <t>1657.79</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1437.69</t>
+          <t>1648.34</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1364.58</t>
+          <t>1581.77</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1372.33</t>
+          <t>1591.06</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4990,42 +4990,42 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2833.42</t>
+          <t>3148.77</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2898.44</t>
+          <t>3221.32</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2405.49</t>
+          <t>2637.40</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2312.87</t>
+          <t>2569.51</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1738.88</t>
+          <t>2028.92</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1727.24</t>
+          <t>2016.00</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1626.47</t>
+          <t>1860.03</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>1617.44</t>
+          <t>1863.65</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -5035,42 +5035,42 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>2858.97</t>
+          <t>3175.19</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>2904.60</t>
+          <t>3241.87</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>2393.81</t>
+          <t>2638.47</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2334.06</t>
+          <t>2592.58</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>1760.83</t>
+          <t>2050.85</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>1747.37</t>
+          <t>2037.85</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>1642.05</t>
+          <t>1870.18</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>1634.81</t>
+          <t>1854.01</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -5080,42 +5080,42 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2885.37</t>
+          <t>3194.81</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2937.96</t>
+          <t>3252.53</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>2401.95</t>
+          <t>2652.32</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2349.93</t>
+          <t>2602.60</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>1804.61</t>
+          <t>2054.20</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>1774.74</t>
+          <t>2041.32</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>1657.43</t>
+          <t>1899.35</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1647.92</t>
+          <t>1873.08</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -5125,42 +5125,42 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>2898.00</t>
+          <t>3214.63</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>2979.54</t>
+          <t>3262.68</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>2411.43</t>
+          <t>2655.89</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>2362.70</t>
+          <t>2611.42</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1809.45</t>
+          <t>2024.84</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>1803.85</t>
+          <t>2008.03</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>1665.13</t>
+          <t>1886.75</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>1656.14</t>
+          <t>1893.99</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
@@ -5170,42 +5170,42 @@
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>2915.63</t>
+          <t>3230.33</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>2989.06</t>
+          <t>3272.33</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>2418.17</t>
+          <t>2660.97</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>2367.96</t>
+          <t>2616.77</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>1797.21</t>
+          <t>2035.88</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>1804.03</t>
+          <t>2021.81</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>1672.18</t>
+          <t>1880.87</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>1665.18</t>
+          <t>1881.16</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
@@ -5215,42 +5215,42 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>2910.56</t>
+          <t>3246.06</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>2978.41</t>
+          <t>3279.07</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>2427.92</t>
+          <t>2674.18</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2377.66</t>
+          <t>2622.54</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>1790.22</t>
+          <t>2045.83</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>1792.07</t>
+          <t>2032.62</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>1680.63</t>
+          <t>1887.39</t>
         </is>
       </c>
       <c r="BJ12" t="inlineStr">
         <is>
-          <t>1672.83</t>
+          <t>1875.73</t>
         </is>
       </c>
       <c r="BK12" t="inlineStr">
@@ -5260,42 +5260,42 @@
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>2923.78</t>
+          <t>3265.84</t>
         </is>
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>2979.09</t>
+          <t>3295.91</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>2441.76</t>
+          <t>2686.47</t>
         </is>
       </c>
       <c r="BO12" t="inlineStr">
         <is>
-          <t>2389.36</t>
+          <t>2637.08</t>
         </is>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
-          <t>1800.34</t>
+          <t>2059.65</t>
         </is>
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t>1800.90</t>
+          <t>2046.86</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
         <is>
-          <t>1703.16</t>
+          <t>1902.79</t>
         </is>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>1687.03</t>
+          <t>1891.13</t>
         </is>
       </c>
       <c r="BT12" t="inlineStr">
@@ -5305,42 +5305,42 @@
       </c>
       <c r="BU12" t="inlineStr">
         <is>
-          <t>3011.52</t>
+          <t>3355.65</t>
         </is>
       </c>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>3058.86</t>
+          <t>3406.97</t>
         </is>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
-          <t>2487.41</t>
+          <t>2734.57</t>
         </is>
       </c>
       <c r="BX12" t="inlineStr">
         <is>
-          <t>2433.23</t>
+          <t>2682.99</t>
         </is>
       </c>
       <c r="BY12" t="inlineStr">
         <is>
-          <t>1873.66</t>
+          <t>2141.48</t>
         </is>
       </c>
       <c r="BZ12" t="inlineStr">
         <is>
-          <t>1865.84</t>
+          <t>2128.69</t>
         </is>
       </c>
       <c r="CA12" t="inlineStr">
         <is>
-          <t>1778.57</t>
+          <t>1984.36</t>
         </is>
       </c>
       <c r="CB12" t="inlineStr">
         <is>
-          <t>1772.30</t>
+          <t>1971.47</t>
         </is>
       </c>
       <c r="CC12" t="inlineStr">
@@ -5350,42 +5350,42 @@
       </c>
       <c r="CD12" t="inlineStr">
         <is>
-          <t>3683.74</t>
+          <t>4062.49</t>
         </is>
       </c>
       <c r="CE12" t="inlineStr">
         <is>
-          <t>3690.20</t>
+          <t>3955.80</t>
         </is>
       </c>
       <c r="CF12" t="inlineStr">
         <is>
-          <t>3094.59</t>
+          <t>3404.77</t>
         </is>
       </c>
       <c r="CG12" t="inlineStr">
         <is>
-          <t>3063.73</t>
+          <t>3281.28</t>
         </is>
       </c>
       <c r="CH12" t="inlineStr">
         <is>
-          <t>2285.06</t>
+          <t>2493.87</t>
         </is>
       </c>
       <c r="CI12" t="inlineStr">
         <is>
-          <t>2269.84</t>
+          <t>2459.82</t>
         </is>
       </c>
       <c r="CJ12" t="inlineStr">
         <is>
-          <t>2222.74</t>
+          <t>2534.19</t>
         </is>
       </c>
       <c r="CK12" t="inlineStr">
         <is>
-          <t>2225.17</t>
+          <t>2537.28</t>
         </is>
       </c>
       <c r="CL12" t="inlineStr">
@@ -5397,42 +5397,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2416.26</t>
+          <t>2405.40</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2278.90</t>
+          <t>2509.75</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1005.65</t>
+          <t>1364.43</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1864.45</t>
+          <t>2113.44</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1528.15</t>
+          <t>1712.69</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1520.29</t>
+          <t>1703.54</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1482.98</t>
+          <t>1585.34</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1544.44</t>
+          <t>1585.41</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5442,42 +5442,42 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>3253.09</t>
+          <t>3146.94</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2973.59</t>
+          <t>3275.45</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2647.80</t>
+          <t>2678.67</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2368.50</t>
+          <t>2602.17</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1835.33</t>
+          <t>2015.80</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1824.23</t>
+          <t>2020.40</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1802.96</t>
+          <t>1899.40</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>1797.63</t>
+          <t>1889.66</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -5487,42 +5487,42 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>3277.73</t>
+          <t>3175.70</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>2984.48</t>
+          <t>3313.27</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>2644.97</t>
+          <t>2667.41</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2383.53</t>
+          <t>2637.98</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>1843.46</t>
+          <t>2037.57</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>1832.39</t>
+          <t>2025.35</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>1858.15</t>
+          <t>1914.18</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>1844.10</t>
+          <t>1906.02</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -5532,42 +5532,42 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>3286.25</t>
+          <t>3198.98</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2819.78</t>
+          <t>3334.19</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>2653.95</t>
+          <t>2675.97</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2380.67</t>
+          <t>2651.03</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>1844.70</t>
+          <t>2052.47</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>1833.62</t>
+          <t>2040.25</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>1907.41</t>
+          <t>1926.84</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1892.85</t>
+          <t>1913.22</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -5577,42 +5577,42 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>3287.66</t>
+          <t>3216.28</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>2803.24</t>
+          <t>3351.97</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>2660.73</t>
+          <t>2684.31</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>2338.84</t>
+          <t>2662.31</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>1842.77</t>
+          <t>2064.05</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>1831.68</t>
+          <t>2051.88</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>1911.52</t>
+          <t>1933.65</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>1897.10</t>
+          <t>1925.25</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
@@ -5622,42 +5622,42 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>3281.05</t>
+          <t>3231.20</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>2812.47</t>
+          <t>3366.48</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>2654.67</t>
+          <t>2690.65</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>2241.50</t>
+          <t>2673.34</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>1737.97</t>
+          <t>2073.91</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>1726.87</t>
+          <t>2061.75</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>1914.88</t>
+          <t>1941.11</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>1903.86</t>
+          <t>1931.85</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
@@ -5667,42 +5667,42 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>3280.49</t>
+          <t>3236.53</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>2821.22</t>
+          <t>3380.09</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>2656.09</t>
+          <t>2707.07</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2248.19</t>
+          <t>2681.23</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>1744.02</t>
+          <t>2083.40</t>
         </is>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>1732.93</t>
+          <t>2071.21</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>1919.13</t>
+          <t>1948.72</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>1908.48</t>
+          <t>1940.01</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr">
@@ -5712,42 +5712,42 @@
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>3292.53</t>
+          <t>3254.83</t>
         </is>
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>2835.26</t>
+          <t>3399.20</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>2670.34</t>
+          <t>2717.64</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr">
         <is>
-          <t>2260.25</t>
+          <t>2694.32</t>
         </is>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
-          <t>1756.19</t>
+          <t>2097.72</t>
         </is>
       </c>
       <c r="BQ13" t="inlineStr">
         <is>
-          <t>1745.32</t>
+          <t>2085.70</t>
         </is>
       </c>
       <c r="BR13" t="inlineStr">
         <is>
-          <t>1929.98</t>
+          <t>1959.79</t>
         </is>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>1920.45</t>
+          <t>1950.86</t>
         </is>
       </c>
       <c r="BT13" t="inlineStr">
@@ -5757,42 +5757,42 @@
       </c>
       <c r="BU13" t="inlineStr">
         <is>
-          <t>3402.90</t>
+          <t>3347.34</t>
         </is>
       </c>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>2932.26</t>
+          <t>3500.09</t>
         </is>
       </c>
       <c r="BW13" t="inlineStr">
         <is>
-          <t>2736.36</t>
+          <t>2757.42</t>
         </is>
       </c>
       <c r="BX13" t="inlineStr">
         <is>
-          <t>2311.01</t>
+          <t>2751.00</t>
         </is>
       </c>
       <c r="BY13" t="inlineStr">
         <is>
-          <t>1839.70</t>
+          <t>2172.72</t>
         </is>
       </c>
       <c r="BZ13" t="inlineStr">
         <is>
-          <t>1829.04</t>
+          <t>2160.65</t>
         </is>
       </c>
       <c r="CA13" t="inlineStr">
         <is>
-          <t>2022.92</t>
+          <t>2036.72</t>
         </is>
       </c>
       <c r="CB13" t="inlineStr">
         <is>
-          <t>2015.95</t>
+          <t>2026.69</t>
         </is>
       </c>
       <c r="CC13" t="inlineStr">
@@ -5802,42 +5802,42 @@
       </c>
       <c r="CD13" t="inlineStr">
         <is>
-          <t>4215.86</t>
+          <t>4066.44</t>
         </is>
       </c>
       <c r="CE13" t="inlineStr">
         <is>
-          <t>3550.46</t>
+          <t>4074.48</t>
         </is>
       </c>
       <c r="CF13" t="inlineStr">
         <is>
-          <t>3351.70</t>
+          <t>3359.76</t>
         </is>
       </c>
       <c r="CG13" t="inlineStr">
         <is>
-          <t>2720.78</t>
+          <t>3210.83</t>
         </is>
       </c>
       <c r="CH13" t="inlineStr">
         <is>
-          <t>2157.59</t>
+          <t>2545.64</t>
         </is>
       </c>
       <c r="CI13" t="inlineStr">
         <is>
-          <t>2132.03</t>
+          <t>2514.41</t>
         </is>
       </c>
       <c r="CJ13" t="inlineStr">
         <is>
-          <t>2457.00</t>
+          <t>2594.99</t>
         </is>
       </c>
       <c r="CK13" t="inlineStr">
         <is>
-          <t>2454.20</t>
+          <t>2601.39</t>
         </is>
       </c>
       <c r="CL13" t="inlineStr">
@@ -5849,42 +5849,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2428.33</t>
+          <t>2359.50</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2046.90</t>
+          <t>2465.29</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>467.97</t>
+          <t>689.41</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1655.29</t>
+          <t>2051.22</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1380.37</t>
+          <t>1653.69</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1371.56</t>
+          <t>1641.74</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1543.76</t>
+          <t>1588.89</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1557.18</t>
+          <t>1592.80</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -5894,42 +5894,42 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>3252.80</t>
+          <t>3197.37</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2701.42</t>
+          <t>3237.76</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2703.80</t>
+          <t>2646.14</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2129.46</t>
+          <t>2540.43</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1698.21</t>
+          <t>2013.72</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1662.95</t>
+          <t>1997.47</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>1922.45</t>
+          <t>1913.81</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>1913.80</t>
+          <t>1896.92</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -5939,224 +5939,224 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>3290.96</t>
+          <t>3234.08</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>2719.81</t>
+          <t>3287.54</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>2727.14</t>
+          <t>2658.97</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2150.90</t>
+          <t>2583.80</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>1802.68</t>
+          <t>2036.38</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>1767.57</t>
+          <t>2020.08</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
+          <t>1940.41</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>1928.52</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>3254.37</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>3313.73</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>2668.57</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>2601.92</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>2047.49</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>2031.56</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>1966.13</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>1950.22</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>3265.68</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>3340.57</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>2675.39</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>2615.13</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>2056.79</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>2039.25</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>1958.47</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>1954.99</t>
+        </is>
+      </c>
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr">
+        <is>
+          <t>3278.35</t>
+        </is>
+      </c>
+      <c r="AU14" t="inlineStr">
+        <is>
+          <t>3338.09</t>
+        </is>
+      </c>
+      <c r="AV14" t="inlineStr">
+        <is>
+          <t>2680.91</t>
+        </is>
+      </c>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>2625.89</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>2061.60</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>2045.28</t>
+        </is>
+      </c>
+      <c r="AZ14" t="inlineStr">
+        <is>
+          <t>1951.62</t>
+        </is>
+      </c>
+      <c r="BA14" t="inlineStr">
+        <is>
+          <t>1951.60</t>
+        </is>
+      </c>
+      <c r="BB14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BC14" t="inlineStr">
+        <is>
+          <t>3289.79</t>
+        </is>
+      </c>
+      <c r="BD14" t="inlineStr">
+        <is>
+          <t>3349.14</t>
+        </is>
+      </c>
+      <c r="BE14" t="inlineStr">
+        <is>
+          <t>2692.61</t>
+        </is>
+      </c>
+      <c r="BF14" t="inlineStr">
+        <is>
+          <t>2631.61</t>
+        </is>
+      </c>
+      <c r="BG14" t="inlineStr">
+        <is>
+          <t>2067.93</t>
+        </is>
+      </c>
+      <c r="BH14" t="inlineStr">
+        <is>
+          <t>2051.66</t>
+        </is>
+      </c>
+      <c r="BI14" t="inlineStr">
+        <is>
+          <t>1961.82</t>
+        </is>
+      </c>
+      <c r="BJ14" t="inlineStr">
+        <is>
           <t>1950.32</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>1938.38</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>3307.75</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>2722.84</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>2735.34</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>2153.87</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>1735.65</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>1722.49</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>1963.33</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>1950.55</t>
-        </is>
-      </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>3315.55</t>
-        </is>
-      </c>
-      <c r="AL14" t="inlineStr">
-        <is>
-          <t>2721.30</t>
-        </is>
-      </c>
-      <c r="AM14" t="inlineStr">
-        <is>
-          <t>2730.08</t>
-        </is>
-      </c>
-      <c r="AN14" t="inlineStr">
-        <is>
-          <t>2154.94</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>1687.58</t>
-        </is>
-      </c>
-      <c r="AP14" t="inlineStr">
-        <is>
-          <t>1675.66</t>
-        </is>
-      </c>
-      <c r="AQ14" t="inlineStr">
-        <is>
-          <t>1967.62</t>
-        </is>
-      </c>
-      <c r="AR14" t="inlineStr">
-        <is>
-          <t>1954.17</t>
-        </is>
-      </c>
-      <c r="AS14" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="AT14" t="inlineStr">
-        <is>
-          <t>3315.16</t>
-        </is>
-      </c>
-      <c r="AU14" t="inlineStr">
-        <is>
-          <t>2719.26</t>
-        </is>
-      </c>
-      <c r="AV14" t="inlineStr">
-        <is>
-          <t>2731.79</t>
-        </is>
-      </c>
-      <c r="AW14" t="inlineStr">
-        <is>
-          <t>2153.63</t>
-        </is>
-      </c>
-      <c r="AX14" t="inlineStr">
-        <is>
-          <t>1686.64</t>
-        </is>
-      </c>
-      <c r="AY14" t="inlineStr">
-        <is>
-          <t>1674.75</t>
-        </is>
-      </c>
-      <c r="AZ14" t="inlineStr">
-        <is>
-          <t>1969.68</t>
-        </is>
-      </c>
-      <c r="BA14" t="inlineStr">
-        <is>
-          <t>1960.63</t>
-        </is>
-      </c>
-      <c r="BB14" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="BC14" t="inlineStr">
-        <is>
-          <t>3293.00</t>
-        </is>
-      </c>
-      <c r="BD14" t="inlineStr">
-        <is>
-          <t>2720.06</t>
-        </is>
-      </c>
-      <c r="BE14" t="inlineStr">
-        <is>
-          <t>2741.43</t>
-        </is>
-      </c>
-      <c r="BF14" t="inlineStr">
-        <is>
-          <t>2154.53</t>
-        </is>
-      </c>
-      <c r="BG14" t="inlineStr">
-        <is>
-          <t>1687.86</t>
-        </is>
-      </c>
-      <c r="BH14" t="inlineStr">
-        <is>
-          <t>1676.00</t>
-        </is>
-      </c>
-      <c r="BI14" t="inlineStr">
-        <is>
-          <t>1977.74</t>
-        </is>
-      </c>
-      <c r="BJ14" t="inlineStr">
-        <is>
-          <t>1969.24</t>
-        </is>
-      </c>
       <c r="BK14" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -6164,42 +6164,42 @@
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>3310.53</t>
+          <t>3301.93</t>
         </is>
       </c>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>2689.32</t>
+          <t>3362.60</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>2753.50</t>
+          <t>2707.26</t>
         </is>
       </c>
       <c r="BO14" t="inlineStr">
         <is>
-          <t>2160.96</t>
+          <t>2651.91</t>
         </is>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
-          <t>1695.21</t>
+          <t>2081.18</t>
         </is>
       </c>
       <c r="BQ14" t="inlineStr">
         <is>
-          <t>1683.40</t>
+          <t>2064.93</t>
         </is>
       </c>
       <c r="BR14" t="inlineStr">
         <is>
-          <t>1993.13</t>
+          <t>1975.09</t>
         </is>
       </c>
       <c r="BS14" t="inlineStr">
         <is>
-          <t>1984.93</t>
+          <t>1962.71</t>
         </is>
       </c>
       <c r="BT14" t="inlineStr">
@@ -6209,42 +6209,42 @@
       </c>
       <c r="BU14" t="inlineStr">
         <is>
-          <t>3412.34</t>
+          <t>3394.53</t>
         </is>
       </c>
       <c r="BV14" t="inlineStr">
         <is>
-          <t>2622.97</t>
+          <t>3495.31</t>
         </is>
       </c>
       <c r="BW14" t="inlineStr">
         <is>
-          <t>2819.04</t>
+          <t>2750.59</t>
         </is>
       </c>
       <c r="BX14" t="inlineStr">
         <is>
-          <t>2108.85</t>
+          <t>2710.35</t>
         </is>
       </c>
       <c r="BY14" t="inlineStr">
         <is>
-          <t>1762.36</t>
+          <t>2172.99</t>
         </is>
       </c>
       <c r="BZ14" t="inlineStr">
         <is>
-          <t>1750.53</t>
+          <t>2154.89</t>
         </is>
       </c>
       <c r="CA14" t="inlineStr">
         <is>
-          <t>2081.03</t>
+          <t>2056.33</t>
         </is>
       </c>
       <c r="CB14" t="inlineStr">
         <is>
-          <t>2073.53</t>
+          <t>2040.52</t>
         </is>
       </c>
       <c r="CC14" t="inlineStr">
@@ -6254,42 +6254,42 @@
       </c>
       <c r="CD14" t="inlineStr">
         <is>
-          <t>4311.31</t>
+          <t>4205.24</t>
         </is>
       </c>
       <c r="CE14" t="inlineStr">
         <is>
-          <t>3105.16</t>
+          <t>3998.53</t>
         </is>
       </c>
       <c r="CF14" t="inlineStr">
         <is>
-          <t>3442.37</t>
+          <t>3405.15</t>
         </is>
       </c>
       <c r="CG14" t="inlineStr">
         <is>
-          <t>2468.64</t>
+          <t>3196.37</t>
         </is>
       </c>
       <c r="CH14" t="inlineStr">
         <is>
-          <t>2115.18</t>
+          <t>2508.09</t>
         </is>
       </c>
       <c r="CI14" t="inlineStr">
         <is>
-          <t>2092.06</t>
+          <t>2468.51</t>
         </is>
       </c>
       <c r="CJ14" t="inlineStr">
         <is>
-          <t>2608.03</t>
+          <t>2644.96</t>
         </is>
       </c>
       <c r="CK14" t="inlineStr">
         <is>
-          <t>2609.91</t>
+          <t>2651.32</t>
         </is>
       </c>
       <c r="CL14" t="inlineStr">
@@ -7205,42 +7205,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1499.60</t>
+          <t>2084.82</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>137.34</t>
+          <t>2230.01</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>45.06</t>
+          <t>596.53</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>136.31</t>
+          <t>1873.40</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>147.71</t>
+          <t>1443.43</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>147.42</t>
+          <t>1435.25</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>892.69</t>
+          <t>1340.03</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>893.87</t>
+          <t>1368.14</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7250,42 +7250,42 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2152.80</t>
+          <t>2794.37</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2186.77</t>
+          <t>2950.21</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1754.38</t>
+          <t>2342.83</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1059.80</t>
+          <t>2338.27</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1307.97</t>
+          <t>1748.47</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1304.42</t>
+          <t>1737.10</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>1152.47</t>
+          <t>1616.06</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1149.48</t>
+          <t>1612.27</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -7295,42 +7295,42 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>2167.30</t>
+          <t>2824.43</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>2228.81</t>
+          <t>2979.86</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>1730.91</t>
+          <t>2333.88</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>1790.97</t>
+          <t>2379.32</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>1304.58</t>
+          <t>1766.89</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>1297.35</t>
+          <t>1760.62</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>1164.08</t>
+          <t>1622.81</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>1156.60</t>
+          <t>1617.95</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -7340,42 +7340,42 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>2175.72</t>
+          <t>2845.04</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2290.64</t>
+          <t>2997.29</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>1728.66</t>
+          <t>2349.64</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>1796.36</t>
+          <t>2399.97</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>1306.62</t>
+          <t>1777.61</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>1299.22</t>
+          <t>1771.39</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>1170.92</t>
+          <t>1639.74</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1162.29</t>
+          <t>1629.44</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -7385,42 +7385,42 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>2182.06</t>
+          <t>2861.78</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>2297.03</t>
+          <t>3012.76</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>1721.28</t>
+          <t>2364.77</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>1803.66</t>
+          <t>2418.82</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>1309.59</t>
+          <t>1791.57</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>1302.16</t>
+          <t>1785.50</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>1175.96</t>
+          <t>1649.59</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>1167.03</t>
+          <t>1643.24</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
@@ -7430,42 +7430,42 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>2187.46</t>
+          <t>2875.79</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>2247.05</t>
+          <t>3026.01</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>1717.86</t>
+          <t>2380.30</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>1348.66</t>
+          <t>2431.76</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>1312.66</t>
+          <t>1804.43</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>1305.26</t>
+          <t>1796.66</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>1180.18</t>
+          <t>1660.03</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>1174.11</t>
+          <t>1652.07</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
@@ -7475,42 +7475,42 @@
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>2192.91</t>
+          <t>2889.32</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>2248.75</t>
+          <t>3038.44</t>
         </is>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>1722.21</t>
+          <t>2395.43</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>769.94</t>
+          <t>2447.65</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>1316.34</t>
+          <t>1815.56</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>1308.99</t>
+          <t>1807.59</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
-          <t>1184.65</t>
+          <t>1669.89</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>1178.66</t>
+          <t>1660.18</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr">
@@ -7520,42 +7520,42 @@
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>2203.20</t>
+          <t>2906.79</t>
         </is>
       </c>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>2256.81</t>
+          <t>3057.40</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>1730.90</t>
+          <t>2410.08</t>
         </is>
       </c>
       <c r="BO17" t="inlineStr">
         <is>
-          <t>324.79</t>
+          <t>2463.11</t>
         </is>
       </c>
       <c r="BP17" t="inlineStr">
         <is>
-          <t>1325.29</t>
+          <t>1832.03</t>
         </is>
       </c>
       <c r="BQ17" t="inlineStr">
         <is>
-          <t>1003.47</t>
+          <t>1824.31</t>
         </is>
       </c>
       <c r="BR17" t="inlineStr">
         <is>
-          <t>1193.96</t>
+          <t>1684.03</t>
         </is>
       </c>
       <c r="BS17" t="inlineStr">
         <is>
-          <t>1188.06</t>
+          <t>1673.73</t>
         </is>
       </c>
       <c r="BT17" t="inlineStr">
@@ -7565,42 +7565,42 @@
       </c>
       <c r="BU17" t="inlineStr">
         <is>
-          <t>2286.24</t>
+          <t>2991.89</t>
         </is>
       </c>
       <c r="BV17" t="inlineStr">
         <is>
-          <t>2349.54</t>
+          <t>3143.14</t>
         </is>
       </c>
       <c r="BW17" t="inlineStr">
         <is>
-          <t>1772.78</t>
+          <t>2453.02</t>
         </is>
       </c>
       <c r="BX17" t="inlineStr">
         <is>
-          <t>562.97</t>
+          <t>2515.05</t>
         </is>
       </c>
       <c r="BY17" t="inlineStr">
         <is>
-          <t>1391.86</t>
+          <t>1917.26</t>
         </is>
       </c>
       <c r="BZ17" t="inlineStr">
         <is>
-          <t>1203.98</t>
+          <t>1911.53</t>
         </is>
       </c>
       <c r="CA17" t="inlineStr">
         <is>
-          <t>1261.88</t>
+          <t>1760.70</t>
         </is>
       </c>
       <c r="CB17" t="inlineStr">
         <is>
-          <t>1255.83</t>
+          <t>1750.39</t>
         </is>
       </c>
       <c r="CC17" t="inlineStr">
@@ -7610,42 +7610,42 @@
       </c>
       <c r="CD17" t="inlineStr">
         <is>
-          <t>2735.97</t>
+          <t>3346.36</t>
         </is>
       </c>
       <c r="CE17" t="inlineStr">
         <is>
-          <t>2845.60</t>
+          <t>3665.60</t>
         </is>
       </c>
       <c r="CF17" t="inlineStr">
         <is>
-          <t>2217.56</t>
+          <t>2912.62</t>
         </is>
       </c>
       <c r="CG17" t="inlineStr">
         <is>
-          <t>1654.23</t>
+          <t>2959.72</t>
         </is>
       </c>
       <c r="CH17" t="inlineStr">
         <is>
-          <t>1701.29</t>
+          <t>2228.55</t>
         </is>
       </c>
       <c r="CI17" t="inlineStr">
         <is>
-          <t>1667.64</t>
+          <t>2198.59</t>
         </is>
       </c>
       <c r="CJ17" t="inlineStr">
         <is>
-          <t>1589.10</t>
+          <t>2195.34</t>
         </is>
       </c>
       <c r="CK17" t="inlineStr">
         <is>
-          <t>1589.71</t>
+          <t>2200.64</t>
         </is>
       </c>
       <c r="CL17" t="inlineStr">
@@ -7657,42 +7657,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2428.33</t>
+          <t>2405.40</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2278.90</t>
+          <t>2522.45</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1185.16</t>
+          <t>1669.99</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1864.45</t>
+          <t>2113.44</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1528.15</t>
+          <t>1712.69</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1520.29</t>
+          <t>1703.54</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1543.76</t>
+          <t>1611.60</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1557.18</t>
+          <t>1592.80</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -7702,42 +7702,42 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>3253.09</t>
+          <t>3220.07</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2973.59</t>
+          <t>3296.29</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2703.80</t>
+          <t>2678.67</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2368.50</t>
+          <t>2602.17</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1835.33</t>
+          <t>2028.92</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1824.23</t>
+          <t>2020.40</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>1922.45</t>
+          <t>1913.81</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>1913.80</t>
+          <t>1905.12</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -7747,224 +7747,224 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>3290.96</t>
+          <t>3256.02</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>2984.48</t>
+          <t>3329.22</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2727.14</t>
+          <t>2667.41</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2383.53</t>
+          <t>2637.98</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>1843.46</t>
+          <t>2050.85</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>1832.39</t>
+          <t>2037.85</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
+          <t>1940.41</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>1928.52</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>3275.12</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>3345.73</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>2675.97</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>2656.66</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>2055.23</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>2041.32</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>1966.13</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>1950.22</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>3289.58</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>3357.29</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>2684.31</t>
+        </is>
+      </c>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>2669.31</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>2064.24</t>
+        </is>
+      </c>
+      <c r="AP18" t="inlineStr">
+        <is>
+          <t>2051.88</t>
+        </is>
+      </c>
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>1958.47</t>
+        </is>
+      </c>
+      <c r="AR18" t="inlineStr">
+        <is>
+          <t>1954.99</t>
+        </is>
+      </c>
+      <c r="AS18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr">
+        <is>
+          <t>3299.46</t>
+        </is>
+      </c>
+      <c r="AU18" t="inlineStr">
+        <is>
+          <t>3368.78</t>
+        </is>
+      </c>
+      <c r="AV18" t="inlineStr">
+        <is>
+          <t>2705.74</t>
+        </is>
+      </c>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>2676.90</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>2073.91</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr">
+        <is>
+          <t>2061.75</t>
+        </is>
+      </c>
+      <c r="AZ18" t="inlineStr">
+        <is>
+          <t>1955.19</t>
+        </is>
+      </c>
+      <c r="BA18" t="inlineStr">
+        <is>
+          <t>1951.60</t>
+        </is>
+      </c>
+      <c r="BB18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BC18" t="inlineStr">
+        <is>
+          <t>3311.66</t>
+        </is>
+      </c>
+      <c r="BD18" t="inlineStr">
+        <is>
+          <t>3380.54</t>
+        </is>
+      </c>
+      <c r="BE18" t="inlineStr">
+        <is>
+          <t>2714.93</t>
+        </is>
+      </c>
+      <c r="BF18" t="inlineStr">
+        <is>
+          <t>2682.80</t>
+        </is>
+      </c>
+      <c r="BG18" t="inlineStr">
+        <is>
+          <t>2083.40</t>
+        </is>
+      </c>
+      <c r="BH18" t="inlineStr">
+        <is>
+          <t>2071.21</t>
+        </is>
+      </c>
+      <c r="BI18" t="inlineStr">
+        <is>
+          <t>1961.82</t>
+        </is>
+      </c>
+      <c r="BJ18" t="inlineStr">
+        <is>
           <t>1950.32</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>1938.38</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>3307.75</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>2937.96</t>
-        </is>
-      </c>
-      <c r="AD18" t="inlineStr">
-        <is>
-          <t>2735.34</t>
-        </is>
-      </c>
-      <c r="AE18" t="inlineStr">
-        <is>
-          <t>2380.67</t>
-        </is>
-      </c>
-      <c r="AF18" t="inlineStr">
-        <is>
-          <t>1844.70</t>
-        </is>
-      </c>
-      <c r="AG18" t="inlineStr">
-        <is>
-          <t>1833.62</t>
-        </is>
-      </c>
-      <c r="AH18" t="inlineStr">
-        <is>
-          <t>1963.33</t>
-        </is>
-      </c>
-      <c r="AI18" t="inlineStr">
-        <is>
-          <t>1950.55</t>
-        </is>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>3315.55</t>
-        </is>
-      </c>
-      <c r="AL18" t="inlineStr">
-        <is>
-          <t>2979.54</t>
-        </is>
-      </c>
-      <c r="AM18" t="inlineStr">
-        <is>
-          <t>2730.08</t>
-        </is>
-      </c>
-      <c r="AN18" t="inlineStr">
-        <is>
-          <t>2362.70</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>1842.77</t>
-        </is>
-      </c>
-      <c r="AP18" t="inlineStr">
-        <is>
-          <t>1831.68</t>
-        </is>
-      </c>
-      <c r="AQ18" t="inlineStr">
-        <is>
-          <t>1967.62</t>
-        </is>
-      </c>
-      <c r="AR18" t="inlineStr">
-        <is>
-          <t>1954.17</t>
-        </is>
-      </c>
-      <c r="AS18" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="AT18" t="inlineStr">
-        <is>
-          <t>3315.16</t>
-        </is>
-      </c>
-      <c r="AU18" t="inlineStr">
-        <is>
-          <t>2989.06</t>
-        </is>
-      </c>
-      <c r="AV18" t="inlineStr">
-        <is>
-          <t>2731.79</t>
-        </is>
-      </c>
-      <c r="AW18" t="inlineStr">
-        <is>
-          <t>2367.96</t>
-        </is>
-      </c>
-      <c r="AX18" t="inlineStr">
-        <is>
-          <t>1797.21</t>
-        </is>
-      </c>
-      <c r="AY18" t="inlineStr">
-        <is>
-          <t>1804.03</t>
-        </is>
-      </c>
-      <c r="AZ18" t="inlineStr">
-        <is>
-          <t>1969.68</t>
-        </is>
-      </c>
-      <c r="BA18" t="inlineStr">
-        <is>
-          <t>1960.63</t>
-        </is>
-      </c>
-      <c r="BB18" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="BC18" t="inlineStr">
-        <is>
-          <t>3293.00</t>
-        </is>
-      </c>
-      <c r="BD18" t="inlineStr">
-        <is>
-          <t>2978.41</t>
-        </is>
-      </c>
-      <c r="BE18" t="inlineStr">
-        <is>
-          <t>2741.43</t>
-        </is>
-      </c>
-      <c r="BF18" t="inlineStr">
-        <is>
-          <t>2377.66</t>
-        </is>
-      </c>
-      <c r="BG18" t="inlineStr">
-        <is>
-          <t>1790.22</t>
-        </is>
-      </c>
-      <c r="BH18" t="inlineStr">
-        <is>
-          <t>1792.07</t>
-        </is>
-      </c>
-      <c r="BI18" t="inlineStr">
-        <is>
-          <t>1977.74</t>
-        </is>
-      </c>
-      <c r="BJ18" t="inlineStr">
-        <is>
-          <t>1969.24</t>
-        </is>
-      </c>
       <c r="BK18" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -7972,42 +7972,42 @@
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>3310.53</t>
+          <t>3329.04</t>
         </is>
       </c>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>2979.09</t>
+          <t>3399.20</t>
         </is>
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>2753.50</t>
+          <t>2728.22</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>2389.36</t>
+          <t>2695.87</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
-          <t>1800.34</t>
+          <t>2097.72</t>
         </is>
       </c>
       <c r="BQ18" t="inlineStr">
         <is>
-          <t>1800.90</t>
+          <t>2085.70</t>
         </is>
       </c>
       <c r="BR18" t="inlineStr">
         <is>
-          <t>1993.13</t>
+          <t>1975.09</t>
         </is>
       </c>
       <c r="BS18" t="inlineStr">
         <is>
-          <t>1984.93</t>
+          <t>1962.71</t>
         </is>
       </c>
       <c r="BT18" t="inlineStr">
@@ -8017,42 +8017,42 @@
       </c>
       <c r="BU18" t="inlineStr">
         <is>
-          <t>3412.34</t>
+          <t>3433.08</t>
         </is>
       </c>
       <c r="BV18" t="inlineStr">
         <is>
-          <t>3058.86</t>
+          <t>3500.09</t>
         </is>
       </c>
       <c r="BW18" t="inlineStr">
         <is>
-          <t>2819.04</t>
+          <t>2785.33</t>
         </is>
       </c>
       <c r="BX18" t="inlineStr">
         <is>
-          <t>2433.23</t>
+          <t>2751.00</t>
         </is>
       </c>
       <c r="BY18" t="inlineStr">
         <is>
-          <t>1873.66</t>
+          <t>2175.31</t>
         </is>
       </c>
       <c r="BZ18" t="inlineStr">
         <is>
-          <t>1865.84</t>
+          <t>2160.65</t>
         </is>
       </c>
       <c r="CA18" t="inlineStr">
         <is>
-          <t>2081.03</t>
+          <t>2056.33</t>
         </is>
       </c>
       <c r="CB18" t="inlineStr">
         <is>
-          <t>2073.53</t>
+          <t>2040.52</t>
         </is>
       </c>
       <c r="CC18" t="inlineStr">
@@ -8062,42 +8062,42 @@
       </c>
       <c r="CD18" t="inlineStr">
         <is>
-          <t>4311.31</t>
+          <t>4219.98</t>
         </is>
       </c>
       <c r="CE18" t="inlineStr">
         <is>
-          <t>3690.20</t>
+          <t>4179.55</t>
         </is>
       </c>
       <c r="CF18" t="inlineStr">
         <is>
-          <t>3442.37</t>
+          <t>3405.15</t>
         </is>
       </c>
       <c r="CG18" t="inlineStr">
         <is>
-          <t>3063.73</t>
+          <t>3296.56</t>
         </is>
       </c>
       <c r="CH18" t="inlineStr">
         <is>
-          <t>2285.06</t>
+          <t>2562.44</t>
         </is>
       </c>
       <c r="CI18" t="inlineStr">
         <is>
-          <t>2269.84</t>
+          <t>2522.50</t>
         </is>
       </c>
       <c r="CJ18" t="inlineStr">
         <is>
-          <t>2608.03</t>
+          <t>2644.96</t>
         </is>
       </c>
       <c r="CK18" t="inlineStr">
         <is>
-          <t>2609.91</t>
+          <t>2651.32</t>
         </is>
       </c>
       <c r="CL18" t="inlineStr">

--- a/ASHRAE901_ApartmentHighRise_STD2019_BuffaloTable.html+a.xlsx
+++ b/ASHRAE901_ApartmentHighRise_STD2019_BuffaloTable.html+a.xlsx
@@ -877,42 +877,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2359.58</t>
+          <t>2472.95</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2450.32</t>
+          <t>2015.64</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>723.70</t>
+          <t>1010.92</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2040.06</t>
+          <t>1590.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1624.44</t>
+          <t>1449.99</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1613.24</t>
+          <t>1441.20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1611.60</t>
+          <t>1655.15</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1590.88</t>
+          <t>1627.94</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -922,42 +922,42 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>3166.89</t>
+          <t>3265.56</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>3207.02</t>
+          <t>2762.23</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2648.17</t>
+          <t>2718.20</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2538.30</t>
+          <t>2172.76</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1972.45</t>
+          <t>1797.26</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1957.69</t>
+          <t>1784.25</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1908.94</t>
+          <t>1968.66</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1905.12</t>
+          <t>1960.57</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -967,42 +967,42 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3205.78</t>
+          <t>3290.50</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>3235.64</t>
+          <t>2790.81</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2631.78</t>
+          <t>2732.90</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2581.48</t>
+          <t>2206.09</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>2008.00</t>
+          <t>1813.09</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1992.99</t>
+          <t>1799.53</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1936.66</t>
+          <t>1993.01</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>1921.87</t>
+          <t>1981.08</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1012,42 +1012,42 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>3223.28</t>
+          <t>3279.07</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>3248.06</t>
+          <t>2801.52</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>2625.39</t>
+          <t>2779.83</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2603.11</t>
+          <t>2330.93</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>2027.61</t>
+          <t>1683.60</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>2012.16</t>
+          <t>1599.79</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>1949.94</t>
+          <t>2004.73</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1934.95</t>
+          <t>2010.91</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1057,42 +1057,42 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>3236.85</t>
+          <t>3288.91</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>3261.18</t>
+          <t>2804.51</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>2642.99</t>
+          <t>2791.21</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>2611.55</t>
+          <t>2209.82</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>2042.13</t>
+          <t>1734.16</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>2026.66</t>
+          <t>1718.22</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>1947.26</t>
+          <t>2008.36</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>1935.70</t>
+          <t>2000.99</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1102,42 +1102,42 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>3246.29</t>
+          <t>3291.41</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>3272.29</t>
+          <t>2812.55</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>2647.81</t>
+          <t>2794.97</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>2616.10</t>
+          <t>2354.43</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>2051.54</t>
+          <t>1838.00</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>2038.59</t>
+          <t>1819.49</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>1955.19</t>
+          <t>2006.78</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>1941.03</t>
+          <t>2009.14</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
@@ -1147,42 +1147,42 @@
       </c>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>3254.27</t>
+          <t>3301.38</t>
         </is>
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>3284.01</t>
+          <t>2986.06</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>2660.27</t>
+          <t>2801.16</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2618.68</t>
+          <t>2204.09</t>
         </is>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
-          <t>2058.89</t>
+          <t>1833.13</t>
         </is>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2046.02</t>
+          <t>1818.90</t>
         </is>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>1947.94</t>
+          <t>2014.98</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>1934.26</t>
+          <t>2004.26</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
@@ -1192,42 +1192,42 @@
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>3236.21</t>
+          <t>3315.30</t>
         </is>
       </c>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>3300.62</t>
+          <t>2833.46</t>
         </is>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>2674.44</t>
+          <t>2803.15</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
-          <t>2631.51</t>
+          <t>2209.78</t>
         </is>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
-          <t>2072.13</t>
+          <t>1797.26</t>
         </is>
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>2059.28</t>
+          <t>1720.51</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
         <is>
-          <t>1923.60</t>
+          <t>2018.74</t>
         </is>
       </c>
       <c r="BS3" t="inlineStr">
         <is>
-          <t>1911.52</t>
+          <t>2012.81</t>
         </is>
       </c>
       <c r="BT3" t="inlineStr">
@@ -1237,42 +1237,42 @@
       </c>
       <c r="BU3" t="inlineStr">
         <is>
-          <t>3310.95</t>
+          <t>3402.42</t>
         </is>
       </c>
       <c r="BV3" t="inlineStr">
         <is>
-          <t>3394.45</t>
+          <t>2920.79</t>
         </is>
       </c>
       <c r="BW3" t="inlineStr">
         <is>
-          <t>2726.19</t>
+          <t>2856.55</t>
         </is>
       </c>
       <c r="BX3" t="inlineStr">
         <is>
-          <t>2684.01</t>
+          <t>2247.67</t>
         </is>
       </c>
       <c r="BY3" t="inlineStr">
         <is>
-          <t>2155.54</t>
+          <t>1806.16</t>
         </is>
       </c>
       <c r="BZ3" t="inlineStr">
         <is>
-          <t>2142.83</t>
+          <t>1788.68</t>
         </is>
       </c>
       <c r="CA3" t="inlineStr">
         <is>
-          <t>2003.48</t>
+          <t>2088.17</t>
         </is>
       </c>
       <c r="CB3" t="inlineStr">
         <is>
-          <t>1997.58</t>
+          <t>2082.90</t>
         </is>
       </c>
       <c r="CC3" t="inlineStr">
@@ -1282,42 +1282,42 @@
       </c>
       <c r="CD3" t="inlineStr">
         <is>
-          <t>4139.16</t>
+          <t>4106.44</t>
         </is>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>3925.78</t>
+          <t>3479.43</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>3339.02</t>
+          <t>3453.02</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
         <is>
-          <t>3143.35</t>
+          <t>2656.68</t>
         </is>
       </c>
       <c r="CH3" t="inlineStr">
         <is>
-          <t>2501.45</t>
+          <t>2037.28</t>
         </is>
       </c>
       <c r="CI3" t="inlineStr">
         <is>
-          <t>2469.76</t>
+          <t>2005.81</t>
         </is>
       </c>
       <c r="CJ3" t="inlineStr">
         <is>
-          <t>2591.50</t>
+          <t>2627.59</t>
         </is>
       </c>
       <c r="CK3" t="inlineStr">
         <is>
-          <t>2598.26</t>
+          <t>2641.56</t>
         </is>
       </c>
       <c r="CL3" t="inlineStr">
@@ -1329,42 +1329,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2359.88</t>
+          <t>2535.16</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2455.75</t>
+          <t>2095.44</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>774.41</t>
+          <t>862.16</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2042.96</t>
+          <t>1856.21</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1655.35</t>
+          <t>1523.75</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1646.22</t>
+          <t>1511.99</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1573.58</t>
+          <t>1662.78</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1568.49</t>
+          <t>1651.96</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1374,42 +1374,42 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3192.05</t>
+          <t>3343.60</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>3219.93</t>
+          <t>3110.63</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2634.30</t>
+          <t>2740.38</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2548.15</t>
+          <t>2432.23</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1985.73</t>
+          <t>1885.34</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1970.44</t>
+          <t>1870.35</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1890.67</t>
+          <t>1979.00</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1880.78</t>
+          <t>1971.43</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1419,42 +1419,42 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>3222.18</t>
+          <t>3371.16</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>3274.53</t>
+          <t>3136.89</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>2652.52</t>
+          <t>2734.13</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2591.90</t>
+          <t>2461.56</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>2011.14</t>
+          <t>1900.14</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>1997.72</t>
+          <t>1881.59</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>1921.07</t>
+          <t>2009.94</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>1905.50</t>
+          <t>1987.21</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1464,42 +1464,42 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>3241.74</t>
+          <t>3384.54</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>3300.39</t>
+          <t>3141.78</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>2669.26</t>
+          <t>2744.95</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2604.52</t>
+          <t>2399.32</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>2021.05</t>
+          <t>1858.00</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>2007.67</t>
+          <t>1839.29</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>1937.67</t>
+          <t>2017.53</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1921.51</t>
+          <t>2003.31</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1509,42 +1509,42 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>3256.76</t>
+          <t>3390.92</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>3318.17</t>
+          <t>3140.63</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>2684.04</t>
+          <t>2760.89</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>2612.37</t>
+          <t>2396.54</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>2035.05</t>
+          <t>1857.21</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>2019.02</t>
+          <t>1838.83</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>1943.77</t>
+          <t>2027.77</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>1931.28</t>
+          <t>2009.24</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1554,42 +1554,42 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>3270.05</t>
+          <t>3387.15</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>3332.68</t>
+          <t>2963.39</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>2705.74</t>
+          <t>2774.75</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>2622.74</t>
+          <t>2395.63</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>2046.42</t>
+          <t>1857.77</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>2031.97</t>
+          <t>1839.70</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>1946.51</t>
+          <t>2030.75</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>1938.24</t>
+          <t>2023.53</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
@@ -1599,42 +1599,42 @@
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>3282.76</t>
+          <t>3386.21</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>3346.57</t>
+          <t>2967.86</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>2714.93</t>
+          <t>2786.46</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2628.83</t>
+          <t>2367.39</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
-          <t>2053.69</t>
+          <t>1859.71</t>
         </is>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2040.00</t>
+          <t>1830.13</t>
         </is>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>1952.67</t>
+          <t>2042.14</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr">
         <is>
-          <t>1940.66</t>
+          <t>2028.80</t>
         </is>
       </c>
       <c r="BK4" t="inlineStr">
@@ -1644,42 +1644,42 @@
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>3295.46</t>
+          <t>3403.43</t>
         </is>
       </c>
       <c r="BM4" t="inlineStr">
         <is>
-          <t>3367.87</t>
+          <t>2978.35</t>
         </is>
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>2728.22</t>
+          <t>2801.15</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
         <is>
-          <t>2641.04</t>
+          <t>2376.18</t>
         </is>
       </c>
       <c r="BP4" t="inlineStr">
         <is>
-          <t>2067.16</t>
+          <t>1867.16</t>
         </is>
       </c>
       <c r="BQ4" t="inlineStr">
         <is>
-          <t>2053.53</t>
+          <t>1839.19</t>
         </is>
       </c>
       <c r="BR4" t="inlineStr">
         <is>
-          <t>1959.76</t>
+          <t>2052.09</t>
         </is>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
-          <t>1954.76</t>
+          <t>2037.17</t>
         </is>
       </c>
       <c r="BT4" t="inlineStr">
@@ -1689,42 +1689,42 @@
       </c>
       <c r="BU4" t="inlineStr">
         <is>
-          <t>3389.67</t>
+          <t>3499.77</t>
         </is>
       </c>
       <c r="BV4" t="inlineStr">
         <is>
-          <t>3488.32</t>
+          <t>3066.12</t>
         </is>
       </c>
       <c r="BW4" t="inlineStr">
         <is>
-          <t>2785.33</t>
+          <t>2850.41</t>
         </is>
       </c>
       <c r="BX4" t="inlineStr">
         <is>
-          <t>2699.67</t>
+          <t>2419.05</t>
         </is>
       </c>
       <c r="BY4" t="inlineStr">
         <is>
-          <t>2156.21</t>
+          <t>1926.01</t>
         </is>
       </c>
       <c r="BZ4" t="inlineStr">
         <is>
-          <t>2137.38</t>
+          <t>1914.45</t>
         </is>
       </c>
       <c r="CA4" t="inlineStr">
         <is>
-          <t>2039.87</t>
+          <t>2136.32</t>
         </is>
       </c>
       <c r="CB4" t="inlineStr">
         <is>
-          <t>2028.85</t>
+          <t>2127.69</t>
         </is>
       </c>
       <c r="CC4" t="inlineStr">
@@ -1734,42 +1734,42 @@
       </c>
       <c r="CD4" t="inlineStr">
         <is>
-          <t>4137.29</t>
+          <t>4338.60</t>
         </is>
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>4099.37</t>
+          <t>3390.87</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>3383.69</t>
+          <t>3474.16</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
         <is>
-          <t>3240.34</t>
+          <t>2644.00</t>
         </is>
       </c>
       <c r="CH4" t="inlineStr">
         <is>
-          <t>2497.05</t>
+          <t>2182.19</t>
         </is>
       </c>
       <c r="CI4" t="inlineStr">
         <is>
-          <t>2462.29</t>
+          <t>2154.81</t>
         </is>
       </c>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>2578.29</t>
+          <t>2654.77</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>2593.18</t>
+          <t>2669.85</t>
         </is>
       </c>
       <c r="CL4" t="inlineStr">
@@ -1781,42 +1781,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2382.48</t>
+          <t>2433.97</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2476.26</t>
+          <t>2527.26</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>608.87</t>
+          <t>662.53</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2052.09</t>
+          <t>2059.56</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1643.93</t>
+          <t>1657.92</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1633.32</t>
+          <t>1646.71</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1590.51</t>
+          <t>1539.83</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1567.86</t>
+          <t>1532.76</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1826,42 +1826,42 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>3220.07</t>
+          <t>3317.25</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>3296.29</t>
+          <t>3259.75</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2621.46</t>
+          <t>2702.02</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2583.40</t>
+          <t>2552.21</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2018.19</t>
+          <t>1922.44</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2005.22</t>
+          <t>1908.54</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1904.29</t>
+          <t>1853.08</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1900.02</t>
+          <t>1844.25</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1871,42 +1871,42 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>3256.02</t>
+          <t>3340.31</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>3329.22</t>
+          <t>3314.07</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>2641.30</t>
+          <t>2695.86</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2621.13</t>
+          <t>2607.44</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>2043.97</t>
+          <t>1961.46</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>2031.23</t>
+          <t>1946.97</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>1918.07</t>
+          <t>1876.33</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>1910.05</t>
+          <t>1861.31</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1916,42 +1916,42 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>3275.12</t>
+          <t>3352.85</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>3345.73</t>
+          <t>3342.77</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>2649.58</t>
+          <t>2695.48</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>2629.38</t>
+          <t>2652.35</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>2055.23</t>
+          <t>1985.29</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>2039.69</t>
+          <t>1971.62</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>1904.24</t>
+          <t>1900.22</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1906.07</t>
+          <t>1881.33</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1961,42 +1961,42 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>3289.58</t>
+          <t>3361.13</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>3357.29</t>
+          <t>3377.65</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>2651.31</t>
+          <t>2700.81</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>2634.85</t>
+          <t>2712.93</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>2064.24</t>
+          <t>2105.64</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>2050.58</t>
+          <t>2089.92</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>1891.82</t>
+          <t>1924.91</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>1881.14</t>
+          <t>1906.45</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -2006,42 +2006,42 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>3299.46</t>
+          <t>3366.96</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>3368.78</t>
+          <t>3360.82</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>2654.01</t>
+          <t>2704.16</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>2642.07</t>
+          <t>2719.06</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>2070.86</t>
+          <t>2111.28</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>2057.20</t>
+          <t>2096.52</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>1895.66</t>
+          <t>1943.91</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>1886.00</t>
+          <t>1934.39</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
@@ -2051,42 +2051,42 @@
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>3311.66</t>
+          <t>3373.81</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>3380.54</t>
+          <t>3369.39</t>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>2663.30</t>
+          <t>2708.73</t>
         </is>
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2647.22</t>
+          <t>2726.23</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>2069.39</t>
+          <t>2116.37</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2054.85</t>
+          <t>2106.87</t>
         </is>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>1901.50</t>
+          <t>1953.25</t>
         </is>
       </c>
       <c r="BJ5" t="inlineStr">
         <is>
-          <t>1889.82</t>
+          <t>1939.77</t>
         </is>
       </c>
       <c r="BK5" t="inlineStr">
@@ -2096,42 +2096,42 @@
       </c>
       <c r="BL5" t="inlineStr">
         <is>
-          <t>3329.04</t>
+          <t>3386.59</t>
         </is>
       </c>
       <c r="BM5" t="inlineStr">
         <is>
-          <t>3394.40</t>
+          <t>3383.15</t>
         </is>
       </c>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>2674.23</t>
+          <t>2720.30</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>2650.96</t>
+          <t>2738.04</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr">
         <is>
-          <t>2081.78</t>
+          <t>2135.17</t>
         </is>
       </c>
       <c r="BQ5" t="inlineStr">
         <is>
-          <t>2067.32</t>
+          <t>2120.43</t>
         </is>
       </c>
       <c r="BR5" t="inlineStr">
         <is>
-          <t>1912.05</t>
+          <t>1967.98</t>
         </is>
       </c>
       <c r="BS5" t="inlineStr">
         <is>
-          <t>1902.27</t>
+          <t>1954.90</t>
         </is>
       </c>
       <c r="BT5" t="inlineStr">
@@ -2141,42 +2141,42 @@
       </c>
       <c r="BU5" t="inlineStr">
         <is>
-          <t>3433.08</t>
+          <t>3489.49</t>
         </is>
       </c>
       <c r="BV5" t="inlineStr">
         <is>
-          <t>3495.44</t>
+          <t>3477.80</t>
         </is>
       </c>
       <c r="BW5" t="inlineStr">
         <is>
-          <t>2713.77</t>
+          <t>2772.00</t>
         </is>
       </c>
       <c r="BX5" t="inlineStr">
         <is>
-          <t>2705.86</t>
+          <t>2789.09</t>
         </is>
       </c>
       <c r="BY5" t="inlineStr">
         <is>
-          <t>2175.31</t>
+          <t>2229.24</t>
         </is>
       </c>
       <c r="BZ5" t="inlineStr">
         <is>
-          <t>2159.30</t>
+          <t>2214.48</t>
         </is>
       </c>
       <c r="CA5" t="inlineStr">
         <is>
-          <t>2005.76</t>
+          <t>2054.33</t>
         </is>
       </c>
       <c r="CB5" t="inlineStr">
         <is>
-          <t>1992.28</t>
+          <t>2043.86</t>
         </is>
       </c>
       <c r="CC5" t="inlineStr">
@@ -2186,42 +2186,42 @@
       </c>
       <c r="CD5" t="inlineStr">
         <is>
-          <t>4219.98</t>
+          <t>4256.96</t>
         </is>
       </c>
       <c r="CE5" t="inlineStr">
         <is>
-          <t>4179.55</t>
+          <t>4060.11</t>
         </is>
       </c>
       <c r="CF5" t="inlineStr">
         <is>
-          <t>3329.76</t>
+          <t>3396.06</t>
         </is>
       </c>
       <c r="CG5" t="inlineStr">
         <is>
-          <t>3250.86</t>
+          <t>3210.50</t>
         </is>
       </c>
       <c r="CH5" t="inlineStr">
         <is>
-          <t>2562.44</t>
+          <t>2551.01</t>
         </is>
       </c>
       <c r="CI5" t="inlineStr">
         <is>
-          <t>2522.50</t>
+          <t>2521.23</t>
         </is>
       </c>
       <c r="CJ5" t="inlineStr">
         <is>
-          <t>2553.70</t>
+          <t>2583.03</t>
         </is>
       </c>
       <c r="CK5" t="inlineStr">
         <is>
-          <t>2567.34</t>
+          <t>2596.21</t>
         </is>
       </c>
       <c r="CL5" t="inlineStr">
@@ -2233,42 +2233,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2288.32</t>
+          <t>2353.15</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2408.77</t>
+          <t>2402.42</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>596.53</t>
+          <t>385.54</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2070.14</t>
+          <t>1956.35</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1645.54</t>
+          <t>1696.38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1635.82</t>
+          <t>1686.80</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1534.28</t>
+          <t>1538.61</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1530.35</t>
+          <t>1536.77</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2278,42 +2278,42 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>3031.25</t>
+          <t>3141.01</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>3222.03</t>
+          <t>3258.26</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2578.63</t>
+          <t>2582.20</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2580.85</t>
+          <t>2550.80</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1959.64</t>
+          <t>1937.84</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1947.55</t>
+          <t>1923.18</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1802.21</t>
+          <t>1831.80</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1793.55</t>
+          <t>1824.31</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -2323,42 +2323,42 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>3094.27</t>
+          <t>3189.25</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>3263.11</t>
+          <t>3305.45</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>2577.71</t>
+          <t>2589.00</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2636.42</t>
+          <t>2604.22</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>1997.77</t>
+          <t>2033.50</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>1996.56</t>
+          <t>2020.38</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1835.06</t>
+          <t>1850.12</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>1814.71</t>
+          <t>1838.66</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -2368,42 +2368,42 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>3114.82</t>
+          <t>3211.24</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>3282.86</t>
+          <t>3327.93</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>2590.20</t>
+          <t>2599.08</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2656.66</t>
+          <t>2620.58</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>2013.92</t>
+          <t>2043.32</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>2002.11</t>
+          <t>2030.18</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>1838.89</t>
+          <t>1856.59</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1827.76</t>
+          <t>1845.66</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -2413,42 +2413,42 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>3106.80</t>
+          <t>3221.84</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>3295.26</t>
+          <t>3342.76</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>2600.51</t>
+          <t>2610.03</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>2669.31</t>
+          <t>2607.92</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>2020.24</t>
+          <t>2050.71</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>2011.66</t>
+          <t>2036.64</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>1852.58</t>
+          <t>1896.58</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>1840.45</t>
+          <t>1888.35</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -2458,42 +2458,42 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>3078.10</t>
+          <t>3233.91</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>3243.19</t>
+          <t>3355.10</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>2608.73</t>
+          <t>2618.48</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>2676.90</t>
+          <t>2615.59</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>2013.77</t>
+          <t>2057.11</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>2009.65</t>
+          <t>2043.01</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>1861.38</t>
+          <t>1901.96</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>1849.21</t>
+          <t>1893.66</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
@@ -2503,42 +2503,42 @@
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>3086.22</t>
+          <t>3245.11</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>3259.92</t>
+          <t>3367.04</t>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>2621.48</t>
+          <t>2597.19</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2682.80</t>
+          <t>2624.57</t>
         </is>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>2021.89</t>
+          <t>2063.37</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2014.72</t>
+          <t>2049.29</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>1869.89</t>
+          <t>1912.73</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr">
         <is>
-          <t>1857.70</t>
+          <t>1899.22</t>
         </is>
       </c>
       <c r="BK6" t="inlineStr">
@@ -2548,42 +2548,42 @@
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>3099.96</t>
+          <t>3261.38</t>
         </is>
       </c>
       <c r="BM6" t="inlineStr">
         <is>
-          <t>3278.95</t>
+          <t>3383.62</t>
         </is>
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>2635.66</t>
+          <t>2608.97</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>2695.87</t>
+          <t>2637.41</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
-          <t>2024.07</t>
+          <t>2074.84</t>
         </is>
       </c>
       <c r="BQ6" t="inlineStr">
         <is>
-          <t>2021.92</t>
+          <t>2060.82</t>
         </is>
       </c>
       <c r="BR6" t="inlineStr">
         <is>
-          <t>1883.44</t>
+          <t>1924.45</t>
         </is>
       </c>
       <c r="BS6" t="inlineStr">
         <is>
-          <t>1871.27</t>
+          <t>1910.89</t>
         </is>
       </c>
       <c r="BT6" t="inlineStr">
@@ -2593,42 +2593,42 @@
       </c>
       <c r="BU6" t="inlineStr">
         <is>
-          <t>3207.88</t>
+          <t>3370.75</t>
         </is>
       </c>
       <c r="BV6" t="inlineStr">
         <is>
-          <t>3372.27</t>
+          <t>3496.09</t>
         </is>
       </c>
       <c r="BW6" t="inlineStr">
         <is>
-          <t>2684.04</t>
+          <t>2654.52</t>
         </is>
       </c>
       <c r="BX6" t="inlineStr">
         <is>
-          <t>2749.23</t>
+          <t>2683.02</t>
         </is>
       </c>
       <c r="BY6" t="inlineStr">
         <is>
-          <t>2101.41</t>
+          <t>2149.83</t>
         </is>
       </c>
       <c r="BZ6" t="inlineStr">
         <is>
-          <t>2098.50</t>
+          <t>2135.50</t>
         </is>
       </c>
       <c r="CA6" t="inlineStr">
         <is>
-          <t>1958.51</t>
+          <t>1996.28</t>
         </is>
       </c>
       <c r="CB6" t="inlineStr">
         <is>
-          <t>1946.34</t>
+          <t>1986.96</t>
         </is>
       </c>
       <c r="CC6" t="inlineStr">
@@ -2638,42 +2638,42 @@
       </c>
       <c r="CD6" t="inlineStr">
         <is>
-          <t>3950.53</t>
+          <t>4059.19</t>
         </is>
       </c>
       <c r="CE6" t="inlineStr">
         <is>
-          <t>4081.43</t>
+          <t>4047.31</t>
         </is>
       </c>
       <c r="CF6" t="inlineStr">
         <is>
-          <t>3240.85</t>
+          <t>3225.10</t>
         </is>
       </c>
       <c r="CG6" t="inlineStr">
         <is>
-          <t>3256.97</t>
+          <t>3048.46</t>
         </is>
       </c>
       <c r="CH6" t="inlineStr">
         <is>
-          <t>2435.31</t>
+          <t>2452.51</t>
         </is>
       </c>
       <c r="CI6" t="inlineStr">
         <is>
-          <t>2501.79</t>
+          <t>2300.88</t>
         </is>
       </c>
       <c r="CJ6" t="inlineStr">
         <is>
-          <t>2407.21</t>
+          <t>2418.03</t>
         </is>
       </c>
       <c r="CK6" t="inlineStr">
         <is>
-          <t>2416.83</t>
+          <t>2418.94</t>
         </is>
       </c>
       <c r="CL6" t="inlineStr">
@@ -2685,42 +2685,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2269.29</t>
+          <t>1985.08</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2429.83</t>
+          <t>2117.27</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1179.97</t>
+          <t>214.06</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2049.71</t>
+          <t>1721.02</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1631.82</t>
+          <t>1368.80</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1622.61</t>
+          <t>1361.76</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1434.20</t>
+          <t>1229.97</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1428.57</t>
+          <t>1227.74</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2730,42 +2730,42 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>3004.06</t>
+          <t>2734.90</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>3194.69</t>
+          <t>2875.45</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2549.77</t>
+          <t>2260.37</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2591.12</t>
+          <t>2259.70</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1956.09</t>
+          <t>1696.34</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1941.68</t>
+          <t>1686.02</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1743.34</t>
+          <t>1526.20</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1732.16</t>
+          <t>1521.43</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2775,42 +2775,42 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>3032.48</t>
+          <t>2767.20</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>3227.39</t>
+          <t>2909.11</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2550.84</t>
+          <t>2254.95</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2626.92</t>
+          <t>2300.57</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>1978.47</t>
+          <t>1719.35</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>1964.12</t>
+          <t>1709.14</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>1778.35</t>
+          <t>1551.62</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>1764.49</t>
+          <t>1543.44</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2820,42 +2820,42 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>3046.52</t>
+          <t>2783.23</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>3243.62</t>
+          <t>2924.75</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>2556.66</t>
+          <t>2260.80</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2638.98</t>
+          <t>2314.96</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>1992.36</t>
+          <t>1731.56</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>1978.35</t>
+          <t>1721.35</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>1798.88</t>
+          <t>1564.81</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1785.59</t>
+          <t>1555.55</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2865,42 +2865,42 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>3060.08</t>
+          <t>2794.41</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>3254.88</t>
+          <t>2935.42</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>2566.92</t>
+          <t>2271.54</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>2648.83</t>
+          <t>2323.90</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>2009.86</t>
+          <t>1739.71</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>1996.73</t>
+          <t>1729.58</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>1808.00</t>
+          <t>1573.48</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>1795.51</t>
+          <t>1566.97</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2910,42 +2910,42 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>3071.06</t>
+          <t>2803.47</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>3266.80</t>
+          <t>2944.11</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>2575.85</t>
+          <t>2278.90</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>2657.19</t>
+          <t>2330.80</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>2025.87</t>
+          <t>1746.15</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>2010.60</t>
+          <t>1735.89</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>1815.74</t>
+          <t>1580.28</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>1803.28</t>
+          <t>1573.75</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
@@ -2955,42 +2955,42 @@
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>3082.83</t>
+          <t>2812.15</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>3277.94</t>
+          <t>2952.42</t>
         </is>
       </c>
       <c r="BE7" t="inlineStr">
         <is>
-          <t>2588.51</t>
+          <t>2286.49</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2665.47</t>
+          <t>2337.52</t>
         </is>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>2039.92</t>
+          <t>1752.25</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026.74</t>
+          <t>1742.25</t>
         </is>
       </c>
       <c r="BI7" t="inlineStr">
         <is>
-          <t>1822.85</t>
+          <t>1589.97</t>
         </is>
       </c>
       <c r="BJ7" t="inlineStr">
         <is>
-          <t>1810.43</t>
+          <t>1580.47</t>
         </is>
       </c>
       <c r="BK7" t="inlineStr">
@@ -3000,42 +3000,42 @@
       </c>
       <c r="BL7" t="inlineStr">
         <is>
-          <t>3107.06</t>
+          <t>2825.94</t>
         </is>
       </c>
       <c r="BM7" t="inlineStr">
         <is>
-          <t>3294.15</t>
+          <t>2966.22</t>
         </is>
       </c>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>2602.45</t>
+          <t>2299.02</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr">
         <is>
-          <t>2678.66</t>
+          <t>2349.61</t>
         </is>
       </c>
       <c r="BP7" t="inlineStr">
         <is>
-          <t>2055.49</t>
+          <t>1764.41</t>
         </is>
       </c>
       <c r="BQ7" t="inlineStr">
         <is>
-          <t>2043.09</t>
+          <t>1754.47</t>
         </is>
       </c>
       <c r="BR7" t="inlineStr">
         <is>
-          <t>1832.06</t>
+          <t>1602.21</t>
         </is>
       </c>
       <c r="BS7" t="inlineStr">
         <is>
-          <t>1821.27</t>
+          <t>1592.54</t>
         </is>
       </c>
       <c r="BT7" t="inlineStr">
@@ -3045,42 +3045,42 @@
       </c>
       <c r="BU7" t="inlineStr">
         <is>
-          <t>3202.63</t>
+          <t>2921.30</t>
         </is>
       </c>
       <c r="BV7" t="inlineStr">
         <is>
-          <t>3382.93</t>
+          <t>3063.81</t>
         </is>
       </c>
       <c r="BW7" t="inlineStr">
         <is>
-          <t>2649.13</t>
+          <t>2349.36</t>
         </is>
       </c>
       <c r="BX7" t="inlineStr">
         <is>
-          <t>2729.26</t>
+          <t>2402.89</t>
         </is>
       </c>
       <c r="BY7" t="inlineStr">
         <is>
-          <t>2137.55</t>
+          <t>1846.99</t>
         </is>
       </c>
       <c r="BZ7" t="inlineStr">
         <is>
-          <t>2125.13</t>
+          <t>1837.54</t>
         </is>
       </c>
       <c r="CA7" t="inlineStr">
         <is>
-          <t>1911.62</t>
+          <t>1678.67</t>
         </is>
       </c>
       <c r="CB7" t="inlineStr">
         <is>
-          <t>1899.38</t>
+          <t>1672.01</t>
         </is>
       </c>
       <c r="CC7" t="inlineStr">
@@ -3090,42 +3090,42 @@
       </c>
       <c r="CD7" t="inlineStr">
         <is>
-          <t>3826.67</t>
+          <t>3463.78</t>
         </is>
       </c>
       <c r="CE7" t="inlineStr">
         <is>
-          <t>3997.57</t>
+          <t>3560.88</t>
         </is>
       </c>
       <c r="CF7" t="inlineStr">
         <is>
-          <t>3231.65</t>
+          <t>2794.70</t>
         </is>
       </c>
       <c r="CG7" t="inlineStr">
         <is>
-          <t>3296.56</t>
+          <t>2833.36</t>
         </is>
       </c>
       <c r="CH7" t="inlineStr">
         <is>
-          <t>2474.16</t>
+          <t>2184.10</t>
         </is>
       </c>
       <c r="CI7" t="inlineStr">
         <is>
-          <t>2450.75</t>
+          <t>2156.39</t>
         </is>
       </c>
       <c r="CJ7" t="inlineStr">
         <is>
-          <t>2370.74</t>
+          <t>2094.38</t>
         </is>
       </c>
       <c r="CK7" t="inlineStr">
         <is>
-          <t>2375.18</t>
+          <t>2097.74</t>
         </is>
       </c>
       <c r="CL7" t="inlineStr">
@@ -3137,42 +3137,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2225.04</t>
+          <t>1886.86</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2382.02</t>
+          <t>2029.58</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>874.43</t>
+          <t>521.18</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1994.93</t>
+          <t>1651.10</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1578.60</t>
+          <t>1313.50</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1567.89</t>
+          <t>1305.91</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1403.74</t>
+          <t>1169.94</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1397.73</t>
+          <t>1173.87</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3182,42 +3182,42 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2915.42</t>
+          <t>2584.74</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>3082.21</t>
+          <t>2733.14</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2417.85</t>
+          <t>2172.96</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2457.71</t>
+          <t>2148.45</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1908.28</t>
+          <t>1619.13</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1894.02</t>
+          <t>1608.50</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1700.36</t>
+          <t>1446.44</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1688.78</t>
+          <t>1442.94</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -3227,42 +3227,42 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2946.40</t>
+          <t>2577.25</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>3113.20</t>
+          <t>2723.82</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>2425.87</t>
+          <t>2108.68</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>2493.79</t>
+          <t>2158.24</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>1931.75</t>
+          <t>1618.19</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>1917.47</t>
+          <t>1607.83</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>1723.64</t>
+          <t>1449.58</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>1710.76</t>
+          <t>1440.49</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -3272,42 +3272,42 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2967.36</t>
+          <t>2583.61</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>3133.61</t>
+          <t>2728.70</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>2440.43</t>
+          <t>2112.47</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>2509.48</t>
+          <t>2169.84</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>1948.39</t>
+          <t>1623.82</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>1934.12</t>
+          <t>1613.57</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>1738.17</t>
+          <t>1456.60</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1725.52</t>
+          <t>1446.49</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -3317,42 +3317,42 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>2984.14</t>
+          <t>2587.47</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>3149.94</t>
+          <t>2731.90</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>2453.19</t>
+          <t>2122.05</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>2521.56</t>
+          <t>2177.80</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1961.72</t>
+          <t>1627.36</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>1947.48</t>
+          <t>1617.18</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>1749.27</t>
+          <t>1461.18</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>1736.60</t>
+          <t>1453.76</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -3362,42 +3362,42 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>2998.53</t>
+          <t>2590.69</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>3163.95</t>
+          <t>2734.50</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>2464.15</t>
+          <t>2129.47</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>2531.74</t>
+          <t>2184.28</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>1973.11</t>
+          <t>1630.23</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>1958.89</t>
+          <t>1620.06</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>1746.15</t>
+          <t>1464.90</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>1732.01</t>
+          <t>1457.58</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
@@ -3407,42 +3407,42 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>3012.04</t>
+          <t>2559.68</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>3177.15</t>
+          <t>2700.90</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>2478.47</t>
+          <t>2137.14</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2541.51</t>
+          <t>2190.89</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>1984.19</t>
+          <t>1607.08</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>1970.00</t>
+          <t>1599.46</t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>1757.19</t>
+          <t>1458.70</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>1743.06</t>
+          <t>1450.07</t>
         </is>
       </c>
       <c r="BK8" t="inlineStr">
@@ -3452,42 +3452,42 @@
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>3029.98</t>
+          <t>2568.01</t>
         </is>
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>3194.94</t>
+          <t>2709.00</t>
         </is>
       </c>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>2493.47</t>
+          <t>2149.51</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr">
         <is>
-          <t>2555.63</t>
+          <t>2202.64</t>
         </is>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
-          <t>2001.84</t>
+          <t>1615.24</t>
         </is>
       </c>
       <c r="BQ8" t="inlineStr">
         <is>
-          <t>1987.71</t>
+          <t>1607.72</t>
         </is>
       </c>
       <c r="BR8" t="inlineStr">
         <is>
-          <t>1774.49</t>
+          <t>1467.92</t>
         </is>
       </c>
       <c r="BS8" t="inlineStr">
         <is>
-          <t>1760.39</t>
+          <t>1459.57</t>
         </is>
       </c>
       <c r="BT8" t="inlineStr">
@@ -3497,42 +3497,42 @@
       </c>
       <c r="BU8" t="inlineStr">
         <is>
-          <t>3123.87</t>
+          <t>2651.94</t>
         </is>
       </c>
       <c r="BV8" t="inlineStr">
         <is>
-          <t>3285.24</t>
+          <t>2794.98</t>
         </is>
       </c>
       <c r="BW8" t="inlineStr">
         <is>
-          <t>2537.47</t>
+          <t>2201.41</t>
         </is>
       </c>
       <c r="BX8" t="inlineStr">
         <is>
-          <t>2602.77</t>
+          <t>2257.79</t>
         </is>
       </c>
       <c r="BY8" t="inlineStr">
         <is>
-          <t>2088.24</t>
+          <t>1692.31</t>
         </is>
       </c>
       <c r="BZ8" t="inlineStr">
         <is>
-          <t>2075.67</t>
+          <t>1685.66</t>
         </is>
       </c>
       <c r="CA8" t="inlineStr">
         <is>
-          <t>1864.80</t>
+          <t>1533.42</t>
         </is>
       </c>
       <c r="CB8" t="inlineStr">
         <is>
-          <t>1850.50</t>
+          <t>1528.58</t>
         </is>
       </c>
       <c r="CC8" t="inlineStr">
@@ -3542,42 +3542,42 @@
       </c>
       <c r="CD8" t="inlineStr">
         <is>
-          <t>3598.96</t>
+          <t>3107.92</t>
         </is>
       </c>
       <c r="CE8" t="inlineStr">
         <is>
-          <t>3742.94</t>
+          <t>3232.97</t>
         </is>
       </c>
       <c r="CF8" t="inlineStr">
         <is>
-          <t>2969.75</t>
+          <t>2613.03</t>
         </is>
       </c>
       <c r="CG8" t="inlineStr">
         <is>
-          <t>3022.93</t>
+          <t>2663.57</t>
         </is>
       </c>
       <c r="CH8" t="inlineStr">
         <is>
-          <t>2369.32</t>
+          <t>2038.83</t>
         </is>
       </c>
       <c r="CI8" t="inlineStr">
         <is>
-          <t>2338.74</t>
+          <t>2015.58</t>
         </is>
       </c>
       <c r="CJ8" t="inlineStr">
         <is>
-          <t>2293.55</t>
+          <t>1953.02</t>
         </is>
       </c>
       <c r="CK8" t="inlineStr">
         <is>
-          <t>2294.45</t>
+          <t>1957.04</t>
         </is>
       </c>
       <c r="CL8" t="inlineStr">
@@ -3589,42 +3589,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2133.58</t>
+          <t>1676.78</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2284.24</t>
+          <t>1781.11</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1129.41</t>
+          <t>550.99</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1945.05</t>
+          <t>1485.58</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1556.47</t>
+          <t>1147.10</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1547.45</t>
+          <t>1141.52</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1394.42</t>
+          <t>1033.02</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1391.86</t>
+          <t>1050.85</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3634,42 +3634,42 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2797.20</t>
+          <t>2314.65</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2953.48</t>
+          <t>2436.66</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2353.99</t>
+          <t>1973.55</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2379.79</t>
+          <t>1959.35</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1856.26</t>
+          <t>1433.67</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1844.18</t>
+          <t>1425.60</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1662.30</t>
+          <t>1285.87</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1652.98</t>
+          <t>1284.77</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -3679,42 +3679,42 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2824.43</t>
+          <t>2321.84</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>2979.86</t>
+          <t>2438.02</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>2347.93</t>
+          <t>1947.21</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>2411.14</t>
+          <t>1963.14</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>1873.81</t>
+          <t>1432.56</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>1861.77</t>
+          <t>1434.41</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>1681.80</t>
+          <t>1297.47</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>1670.06</t>
+          <t>1291.24</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -3724,42 +3724,42 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2845.23</t>
+          <t>2326.61</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2997.29</t>
+          <t>2432.83</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>2358.89</t>
+          <t>1946.75</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>2425.72</t>
+          <t>1962.94</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>1885.50</t>
+          <t>1436.54</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>1874.51</t>
+          <t>1439.23</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>1695.58</t>
+          <t>1304.58</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1683.49</t>
+          <t>1296.74</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -3769,42 +3769,42 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>2861.87</t>
+          <t>2330.53</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>3012.76</t>
+          <t>2431.83</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>2371.07</t>
+          <t>1955.24</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>2437.02</t>
+          <t>1967.79</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1894.07</t>
+          <t>1440.49</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>1884.52</t>
+          <t>1438.68</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>1706.20</t>
+          <t>1310.20</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>1694.08</t>
+          <t>1304.99</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -3814,42 +3814,42 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>2876.07</t>
+          <t>2334.01</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>3026.01</t>
+          <t>2434.53</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>2381.65</t>
+          <t>1961.10</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>2446.55</t>
+          <t>1968.19</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>1902.49</t>
+          <t>1444.26</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>1891.94</t>
+          <t>1441.74</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>1715.23</t>
+          <t>1315.10</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>1703.12</t>
+          <t>1309.92</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
@@ -3859,42 +3859,42 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>2889.32</t>
+          <t>2337.87</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>3038.44</t>
+          <t>2437.72</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>2395.43</t>
+          <t>1967.32</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2455.71</t>
+          <t>1969.15</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>1910.73</t>
+          <t>1448.33</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>1900.23</t>
+          <t>1445.89</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>1723.98</t>
+          <t>1323.28</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>1711.88</t>
+          <t>1315.10</t>
         </is>
       </c>
       <c r="BK9" t="inlineStr">
@@ -3904,42 +3904,42 @@
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>2906.79</t>
+          <t>2346.85</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>3057.40</t>
+          <t>2446.16</t>
         </is>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>2410.08</t>
+          <t>1977.92</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
         <is>
-          <t>2469.24</t>
+          <t>1974.91</t>
         </is>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
-          <t>1928.21</t>
+          <t>1456.95</t>
         </is>
       </c>
       <c r="BQ9" t="inlineStr">
         <is>
-          <t>1916.33</t>
+          <t>1454.68</t>
         </is>
       </c>
       <c r="BR9" t="inlineStr">
         <is>
-          <t>1737.85</t>
+          <t>1333.21</t>
         </is>
       </c>
       <c r="BS9" t="inlineStr">
         <is>
-          <t>1725.79</t>
+          <t>1325.03</t>
         </is>
       </c>
       <c r="BT9" t="inlineStr">
@@ -3949,42 +3949,42 @@
       </c>
       <c r="BU9" t="inlineStr">
         <is>
-          <t>2991.89</t>
+          <t>2428.64</t>
         </is>
       </c>
       <c r="BV9" t="inlineStr">
         <is>
-          <t>3143.14</t>
+          <t>2528.45</t>
         </is>
       </c>
       <c r="BW9" t="inlineStr">
         <is>
-          <t>2453.02</t>
+          <t>2022.22</t>
         </is>
       </c>
       <c r="BX9" t="inlineStr">
         <is>
-          <t>2515.05</t>
+          <t>2038.15</t>
         </is>
       </c>
       <c r="BY9" t="inlineStr">
         <is>
-          <t>2003.51</t>
+          <t>1526.38</t>
         </is>
       </c>
       <c r="BZ9" t="inlineStr">
         <is>
-          <t>1991.66</t>
+          <t>1525.11</t>
         </is>
       </c>
       <c r="CA9" t="inlineStr">
         <is>
-          <t>1813.38</t>
+          <t>1400.89</t>
         </is>
       </c>
       <c r="CB9" t="inlineStr">
         <is>
-          <t>1801.31</t>
+          <t>1395.74</t>
         </is>
       </c>
       <c r="CC9" t="inlineStr">
@@ -3994,42 +3994,42 @@
       </c>
       <c r="CD9" t="inlineStr">
         <is>
-          <t>3461.59</t>
+          <t>2875.39</t>
         </is>
       </c>
       <c r="CE9" t="inlineStr">
         <is>
-          <t>3665.60</t>
+          <t>3011.42</t>
         </is>
       </c>
       <c r="CF9" t="inlineStr">
         <is>
-          <t>2912.62</t>
+          <t>2390.90</t>
         </is>
       </c>
       <c r="CG9" t="inlineStr">
         <is>
-          <t>2959.72</t>
+          <t>2417.82</t>
         </is>
       </c>
       <c r="CH9" t="inlineStr">
         <is>
-          <t>2274.86</t>
+          <t>1794.54</t>
         </is>
       </c>
       <c r="CI9" t="inlineStr">
         <is>
-          <t>2246.00</t>
+          <t>1798.95</t>
         </is>
       </c>
       <c r="CJ9" t="inlineStr">
         <is>
-          <t>2207.46</t>
+          <t>1795.50</t>
         </is>
       </c>
       <c r="CK9" t="inlineStr">
         <is>
-          <t>2208.72</t>
+          <t>1801.18</t>
         </is>
       </c>
       <c r="CL9" t="inlineStr">
@@ -4041,42 +4041,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2084.82</t>
+          <t>1729.71</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2230.01</t>
+          <t>1829.06</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1379.37</t>
+          <t>814.36</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1873.40</t>
+          <t>1454.02</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1443.43</t>
+          <t>1156.81</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1435.25</t>
+          <t>1149.31</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1340.03</t>
+          <t>1069.85</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1368.14</t>
+          <t>1075.25</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4086,42 +4086,42 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2794.37</t>
+          <t>2396.76</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2950.21</t>
+          <t>2480.07</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2342.83</t>
+          <t>1945.91</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2338.27</t>
+          <t>1913.50</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1748.47</t>
+          <t>1424.93</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1737.10</t>
+          <t>1414.49</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1616.06</t>
+          <t>1312.99</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1612.27</t>
+          <t>1323.37</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -4131,42 +4131,42 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2825.41</t>
+          <t>2402.29</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>2982.42</t>
+          <t>2483.61</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>2333.88</t>
+          <t>1915.41</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>2379.32</t>
+          <t>1931.36</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>1766.89</t>
+          <t>1419.21</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>1760.62</t>
+          <t>1409.30</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>1622.81</t>
+          <t>1300.64</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>1617.95</t>
+          <t>1308.03</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -4176,42 +4176,42 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2845.04</t>
+          <t>2407.38</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>3000.92</t>
+          <t>2488.09</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>2349.64</t>
+          <t>1911.64</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>2399.97</t>
+          <t>1936.05</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>1777.61</t>
+          <t>1423.07</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>1771.39</t>
+          <t>1413.17</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>1639.74</t>
+          <t>1286.89</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1629.44</t>
+          <t>1279.30</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -4221,42 +4221,42 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>2861.78</t>
+          <t>2411.86</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>3016.21</t>
+          <t>2492.57</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>2364.77</t>
+          <t>1916.72</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>2418.82</t>
+          <t>1943.32</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1791.57</t>
+          <t>1426.14</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>1785.50</t>
+          <t>1416.28</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>1649.59</t>
+          <t>1290.21</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>1643.24</t>
+          <t>1285.13</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -4266,42 +4266,42 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>2875.79</t>
+          <t>2415.90</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>3030.49</t>
+          <t>2496.77</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>2380.30</t>
+          <t>1919.92</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>2431.76</t>
+          <t>1949.54</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>1804.43</t>
+          <t>1428.84</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>1796.66</t>
+          <t>1419.02</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>1660.03</t>
+          <t>1293.33</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>1652.07</t>
+          <t>1288.28</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
@@ -4311,42 +4311,42 @@
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>2890.29</t>
+          <t>2420.30</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>3043.96</t>
+          <t>2501.35</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>2397.84</t>
+          <t>1923.98</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2447.65</t>
+          <t>1955.76</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>1815.56</t>
+          <t>1431.99</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>1807.59</t>
+          <t>1422.18</t>
         </is>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>1669.89</t>
+          <t>1299.88</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>1660.18</t>
+          <t>1291.94</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
@@ -4356,42 +4356,42 @@
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>2909.47</t>
+          <t>2429.84</t>
         </is>
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>3063.07</t>
+          <t>2511.04</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>2414.10</t>
+          <t>1932.68</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr">
         <is>
-          <t>2463.11</t>
+          <t>1966.31</t>
         </is>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
-          <t>1832.03</t>
+          <t>1440.35</t>
         </is>
       </c>
       <c r="BQ10" t="inlineStr">
         <is>
-          <t>1824.31</t>
+          <t>1430.59</t>
         </is>
       </c>
       <c r="BR10" t="inlineStr">
         <is>
-          <t>1684.03</t>
+          <t>1308.42</t>
         </is>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
-          <t>1673.73</t>
+          <t>1300.46</t>
         </is>
       </c>
       <c r="BT10" t="inlineStr">
@@ -4401,42 +4401,42 @@
       </c>
       <c r="BU10" t="inlineStr">
         <is>
-          <t>3005.69</t>
+          <t>2513.97</t>
         </is>
       </c>
       <c r="BV10" t="inlineStr">
         <is>
-          <t>3160.13</t>
+          <t>2593.26</t>
         </is>
       </c>
       <c r="BW10" t="inlineStr">
         <is>
-          <t>2465.83</t>
+          <t>1976.97</t>
         </is>
       </c>
       <c r="BX10" t="inlineStr">
         <is>
-          <t>2516.57</t>
+          <t>2010.80</t>
         </is>
       </c>
       <c r="BY10" t="inlineStr">
         <is>
-          <t>1917.26</t>
+          <t>1511.06</t>
         </is>
       </c>
       <c r="BZ10" t="inlineStr">
         <is>
-          <t>1911.53</t>
+          <t>1501.49</t>
         </is>
       </c>
       <c r="CA10" t="inlineStr">
         <is>
-          <t>1760.70</t>
+          <t>1375.92</t>
         </is>
       </c>
       <c r="CB10" t="inlineStr">
         <is>
-          <t>1750.39</t>
+          <t>1371.01</t>
         </is>
       </c>
       <c r="CC10" t="inlineStr">
@@ -4446,42 +4446,42 @@
       </c>
       <c r="CD10" t="inlineStr">
         <is>
-          <t>3346.36</t>
+          <t>2958.28</t>
         </is>
       </c>
       <c r="CE10" t="inlineStr">
         <is>
-          <t>3698.94</t>
+          <t>3083.70</t>
         </is>
       </c>
       <c r="CF10" t="inlineStr">
         <is>
-          <t>2950.01</t>
+          <t>2471.05</t>
         </is>
       </c>
       <c r="CG10" t="inlineStr">
         <is>
-          <t>2989.47</t>
+          <t>2449.60</t>
         </is>
       </c>
       <c r="CH10" t="inlineStr">
         <is>
-          <t>2228.55</t>
+          <t>1830.36</t>
         </is>
       </c>
       <c r="CI10" t="inlineStr">
         <is>
-          <t>2198.59</t>
+          <t>1806.32</t>
         </is>
       </c>
       <c r="CJ10" t="inlineStr">
         <is>
-          <t>2195.34</t>
+          <t>1792.73</t>
         </is>
       </c>
       <c r="CK10" t="inlineStr">
         <is>
-          <t>2200.64</t>
+          <t>1801.67</t>
         </is>
       </c>
       <c r="CL10" t="inlineStr">
@@ -4493,42 +4493,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2279.51</t>
+          <t>1792.40</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2422.63</t>
+          <t>1920.69</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1426.73</t>
+          <t>1018.17</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2052.68</t>
+          <t>1523.19</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1641.65</t>
+          <t>1162.43</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1632.39</t>
+          <t>1162.79</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1477.97</t>
+          <t>1143.74</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1485.21</t>
+          <t>1154.18</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -4538,42 +4538,42 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2971.72</t>
+          <t>2466.15</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>3116.99</t>
+          <t>2535.91</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2524.29</t>
+          <t>2078.05</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2492.34</t>
+          <t>1948.53</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1947.90</t>
+          <t>1429.56</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1935.49</t>
+          <t>1419.46</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1761.69</t>
+          <t>1390.97</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1752.35</t>
+          <t>1395.98</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -4583,42 +4583,42 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2998.64</t>
+          <t>2470.34</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>3149.52</t>
+          <t>2442.64</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>2511.47</t>
+          <t>1979.34</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2529.82</t>
+          <t>1913.75</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>1968.27</t>
+          <t>1410.59</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>1955.86</t>
+          <t>1400.86</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>1779.54</t>
+          <t>1371.81</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>1767.21</t>
+          <t>1391.16</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -4628,42 +4628,42 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>3021.67</t>
+          <t>2476.18</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>3173.18</t>
+          <t>2440.44</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>2520.51</t>
+          <t>1974.87</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>2547.64</t>
+          <t>1916.80</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>1981.78</t>
+          <t>1413.16</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>1969.42</t>
+          <t>1405.47</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>1794.49</t>
+          <t>1361.29</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1777.67</t>
+          <t>1378.39</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -4673,42 +4673,42 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>3040.54</t>
+          <t>2481.53</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>3192.51</t>
+          <t>2442.92</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>2532.76</t>
+          <t>1980.87</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>2562.18</t>
+          <t>1921.29</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>1993.24</t>
+          <t>1416.26</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>1980.90</t>
+          <t>1409.64</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>1803.85</t>
+          <t>1360.99</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>1790.55</t>
+          <t>1371.00</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -4718,42 +4718,42 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>3056.73</t>
+          <t>2486.35</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>3209.16</t>
+          <t>2445.47</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>2544.93</t>
+          <t>1984.87</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>2574.53</t>
+          <t>1927.28</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>2002.92</t>
+          <t>1419.49</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>1990.60</t>
+          <t>1413.31</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>1812.12</t>
+          <t>1361.02</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>1798.75</t>
+          <t>1370.64</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
@@ -4763,42 +4763,42 @@
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>3071.94</t>
+          <t>2491.36</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>3224.77</t>
+          <t>2448.56</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>2560.45</t>
+          <t>1989.59</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2586.31</t>
+          <t>1933.33</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>2012.34</t>
+          <t>1423.31</t>
         </is>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2000.04</t>
+          <t>1417.36</t>
         </is>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>1820.49</t>
+          <t>1364.02</t>
         </is>
       </c>
       <c r="BJ11" t="inlineStr">
         <is>
-          <t>1807.12</t>
+          <t>1374.29</t>
         </is>
       </c>
       <c r="BK11" t="inlineStr">
@@ -4808,42 +4808,42 @@
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>3091.88</t>
+          <t>2501.36</t>
         </is>
       </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>3245.30</t>
+          <t>2456.66</t>
         </is>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>2577.25</t>
+          <t>1998.98</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>2602.76</t>
+          <t>1940.08</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
-          <t>2027.32</t>
+          <t>1432.05</t>
         </is>
       </c>
       <c r="BQ11" t="inlineStr">
         <is>
-          <t>2015.07</t>
+          <t>1426.78</t>
         </is>
       </c>
       <c r="BR11" t="inlineStr">
         <is>
-          <t>1835.50</t>
+          <t>1374.52</t>
         </is>
       </c>
       <c r="BS11" t="inlineStr">
         <is>
-          <t>1822.18</t>
+          <t>1381.08</t>
         </is>
       </c>
       <c r="BT11" t="inlineStr">
@@ -4853,42 +4853,42 @@
       </c>
       <c r="BU11" t="inlineStr">
         <is>
-          <t>3183.09</t>
+          <t>2586.69</t>
         </is>
       </c>
       <c r="BV11" t="inlineStr">
         <is>
-          <t>3339.62</t>
+          <t>2537.54</t>
         </is>
       </c>
       <c r="BW11" t="inlineStr">
         <is>
-          <t>2623.48</t>
+          <t>2045.02</t>
         </is>
       </c>
       <c r="BX11" t="inlineStr">
         <is>
-          <t>2653.05</t>
+          <t>1991.53</t>
         </is>
       </c>
       <c r="BY11" t="inlineStr">
         <is>
-          <t>2107.78</t>
+          <t>1501.00</t>
         </is>
       </c>
       <c r="BZ11" t="inlineStr">
         <is>
-          <t>2095.55</t>
+          <t>1498.11</t>
         </is>
       </c>
       <c r="CA11" t="inlineStr">
         <is>
-          <t>1920.66</t>
+          <t>1424.49</t>
         </is>
       </c>
       <c r="CB11" t="inlineStr">
         <is>
-          <t>1907.30</t>
+          <t>1438.61</t>
         </is>
       </c>
       <c r="CC11" t="inlineStr">
@@ -4898,42 +4898,42 @@
       </c>
       <c r="CD11" t="inlineStr">
         <is>
-          <t>3677.51</t>
+          <t>3027.88</t>
         </is>
       </c>
       <c r="CE11" t="inlineStr">
         <is>
-          <t>3820.04</t>
+          <t>3031.44</t>
         </is>
       </c>
       <c r="CF11" t="inlineStr">
         <is>
-          <t>3097.89</t>
+          <t>2555.49</t>
         </is>
       </c>
       <c r="CG11" t="inlineStr">
         <is>
-          <t>3089.88</t>
+          <t>2469.70</t>
         </is>
       </c>
       <c r="CH11" t="inlineStr">
         <is>
-          <t>2414.97</t>
+          <t>1811.02</t>
         </is>
       </c>
       <c r="CI11" t="inlineStr">
         <is>
-          <t>2384.68</t>
+          <t>1796.19</t>
         </is>
       </c>
       <c r="CJ11" t="inlineStr">
         <is>
-          <t>2347.89</t>
+          <t>1866.40</t>
         </is>
       </c>
       <c r="CK11" t="inlineStr">
         <is>
-          <t>2350.23</t>
+          <t>1877.69</t>
         </is>
       </c>
       <c r="CL11" t="inlineStr">
@@ -4945,42 +4945,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2371.22</t>
+          <t>2133.43</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2522.45</t>
+          <t>2157.32</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1669.99</t>
+          <t>1416.56</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2090.68</t>
+          <t>1708.43</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1657.79</t>
+          <t>1341.26</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1648.34</t>
+          <t>1341.95</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1581.77</t>
+          <t>1392.59</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1591.06</t>
+          <t>1397.54</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4990,42 +4990,42 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>3148.77</t>
+          <t>2860.01</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>3221.32</t>
+          <t>2899.23</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2637.40</t>
+          <t>2367.43</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2569.51</t>
+          <t>2172.11</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2028.92</t>
+          <t>1623.20</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2016.00</t>
+          <t>1612.54</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1860.03</t>
+          <t>1620.80</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>1863.65</t>
+          <t>1642.65</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -5035,42 +5035,42 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>3175.19</t>
+          <t>2861.09</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>3241.87</t>
+          <t>2917.24</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>2638.47</t>
+          <t>2326.67</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2592.58</t>
+          <t>2200.94</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>2050.85</t>
+          <t>1640.68</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>2037.85</t>
+          <t>1627.20</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>1870.18</t>
+          <t>1630.51</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>1854.01</t>
+          <t>1623.01</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -5080,42 +5080,42 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>3194.81</t>
+          <t>2860.35</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>3252.53</t>
+          <t>2928.95</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>2652.32</t>
+          <t>2314.30</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2602.60</t>
+          <t>2211.03</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>2054.20</t>
+          <t>1660.70</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>2041.32</t>
+          <t>1639.97</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>1899.35</t>
+          <t>1632.57</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1873.08</t>
+          <t>1624.73</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -5125,42 +5125,42 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>3214.63</t>
+          <t>2859.74</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>3262.68</t>
+          <t>2936.42</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>2655.89</t>
+          <t>2313.76</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>2611.42</t>
+          <t>2219.55</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>2024.84</t>
+          <t>1663.41</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>2008.03</t>
+          <t>1651.48</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>1886.75</t>
+          <t>1627.77</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>1893.99</t>
+          <t>1626.84</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
@@ -5170,42 +5170,42 @@
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>3230.33</t>
+          <t>2860.26</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>3272.33</t>
+          <t>2942.87</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>2660.97</t>
+          <t>2313.96</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>2616.77</t>
+          <t>2226.33</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>2035.88</t>
+          <t>1668.86</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>2021.81</t>
+          <t>1657.66</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>1880.87</t>
+          <t>1625.32</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>1881.16</t>
+          <t>1620.31</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
@@ -5215,42 +5215,42 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>3246.06</t>
+          <t>2862.45</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>3279.07</t>
+          <t>2951.35</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>2674.18</t>
+          <t>2314.85</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2622.54</t>
+          <t>2233.00</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>2045.83</t>
+          <t>1675.52</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2032.62</t>
+          <t>1663.94</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>1887.39</t>
+          <t>1631.46</t>
         </is>
       </c>
       <c r="BJ12" t="inlineStr">
         <is>
-          <t>1875.73</t>
+          <t>1619.78</t>
         </is>
       </c>
       <c r="BK12" t="inlineStr">
@@ -5260,42 +5260,42 @@
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>3265.84</t>
+          <t>2870.25</t>
         </is>
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>3295.91</t>
+          <t>2963.52</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>2686.47</t>
+          <t>2325.18</t>
         </is>
       </c>
       <c r="BO12" t="inlineStr">
         <is>
-          <t>2637.08</t>
+          <t>2244.06</t>
         </is>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
-          <t>2059.65</t>
+          <t>1686.11</t>
         </is>
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t>2046.86</t>
+          <t>1674.73</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
         <is>
-          <t>1902.79</t>
+          <t>1639.12</t>
         </is>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>1891.13</t>
+          <t>1629.42</t>
         </is>
       </c>
       <c r="BT12" t="inlineStr">
@@ -5305,42 +5305,42 @@
       </c>
       <c r="BU12" t="inlineStr">
         <is>
-          <t>3355.65</t>
+          <t>2960.66</t>
         </is>
       </c>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>3406.97</t>
+          <t>3064.01</t>
         </is>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
-          <t>2734.57</t>
+          <t>2374.11</t>
         </is>
       </c>
       <c r="BX12" t="inlineStr">
         <is>
-          <t>2682.99</t>
+          <t>2295.20</t>
         </is>
       </c>
       <c r="BY12" t="inlineStr">
         <is>
-          <t>2141.48</t>
+          <t>1762.13</t>
         </is>
       </c>
       <c r="BZ12" t="inlineStr">
         <is>
-          <t>2128.69</t>
+          <t>1751.10</t>
         </is>
       </c>
       <c r="CA12" t="inlineStr">
         <is>
-          <t>1984.36</t>
+          <t>1714.52</t>
         </is>
       </c>
       <c r="CB12" t="inlineStr">
         <is>
-          <t>1971.47</t>
+          <t>1707.95</t>
         </is>
       </c>
       <c r="CC12" t="inlineStr">
@@ -5350,42 +5350,42 @@
       </c>
       <c r="CD12" t="inlineStr">
         <is>
-          <t>4062.49</t>
+          <t>3632.65</t>
         </is>
       </c>
       <c r="CE12" t="inlineStr">
         <is>
-          <t>3955.80</t>
+          <t>3740.68</t>
         </is>
       </c>
       <c r="CF12" t="inlineStr">
         <is>
-          <t>3404.77</t>
+          <t>2937.11</t>
         </is>
       </c>
       <c r="CG12" t="inlineStr">
         <is>
-          <t>3281.28</t>
+          <t>2806.90</t>
         </is>
       </c>
       <c r="CH12" t="inlineStr">
         <is>
-          <t>2493.87</t>
+          <t>2141.56</t>
         </is>
       </c>
       <c r="CI12" t="inlineStr">
         <is>
-          <t>2459.82</t>
+          <t>2108.95</t>
         </is>
       </c>
       <c r="CJ12" t="inlineStr">
         <is>
-          <t>2534.19</t>
+          <t>2203.56</t>
         </is>
       </c>
       <c r="CK12" t="inlineStr">
         <is>
-          <t>2537.28</t>
+          <t>2214.58</t>
         </is>
       </c>
       <c r="CL12" t="inlineStr">
@@ -5397,42 +5397,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2405.40</t>
+          <t>2430.38</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2509.75</t>
+          <t>2307.73</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1364.43</t>
+          <t>1072.17</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2113.44</t>
+          <t>1822.59</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1712.69</t>
+          <t>1452.69</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1703.54</t>
+          <t>1442.60</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1585.34</t>
+          <t>1513.43</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1585.41</t>
+          <t>1519.79</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5442,42 +5442,42 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>3146.94</t>
+          <t>3237.24</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3275.45</t>
+          <t>3101.51</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2678.67</t>
+          <t>2643.81</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2602.17</t>
+          <t>2363.30</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2015.80</t>
+          <t>1785.66</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2020.40</t>
+          <t>1769.98</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1899.40</t>
+          <t>1830.66</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>1889.66</t>
+          <t>1826.74</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -5487,42 +5487,42 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>3175.70</t>
+          <t>3243.72</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>3313.27</t>
+          <t>3133.46</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>2667.41</t>
+          <t>2605.50</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2637.98</t>
+          <t>2403.95</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>2037.57</t>
+          <t>1809.61</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>2025.35</t>
+          <t>1796.29</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>1914.18</t>
+          <t>1841.47</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>1906.02</t>
+          <t>1832.76</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -5532,42 +5532,42 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>3198.98</t>
+          <t>3246.38</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>3334.19</t>
+          <t>3149.82</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>2675.97</t>
+          <t>2595.48</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2651.03</t>
+          <t>2417.71</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>2052.47</t>
+          <t>1824.48</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>2040.25</t>
+          <t>1812.32</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>1926.84</t>
+          <t>1849.23</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1913.22</t>
+          <t>1835.38</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -5577,42 +5577,42 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>3216.28</t>
+          <t>3249.65</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>3351.97</t>
+          <t>3157.78</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>2684.31</t>
+          <t>2600.86</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>2662.31</t>
+          <t>2428.65</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>2064.05</t>
+          <t>1828.83</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>2051.88</t>
+          <t>1815.74</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>1933.65</t>
+          <t>1860.05</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>1925.25</t>
+          <t>1850.90</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
@@ -5622,42 +5622,42 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>3231.20</t>
+          <t>3252.26</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>3366.48</t>
+          <t>3164.34</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>2690.65</t>
+          <t>2617.58</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>2673.34</t>
+          <t>2434.56</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>2073.91</t>
+          <t>1832.20</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>2061.75</t>
+          <t>1819.52</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>1941.11</t>
+          <t>1865.00</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>1931.85</t>
+          <t>1860.70</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
@@ -5667,42 +5667,42 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>3236.53</t>
+          <t>3256.29</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>3380.09</t>
+          <t>3170.54</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>2707.07</t>
+          <t>2628.49</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2681.23</t>
+          <t>2438.40</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>2083.40</t>
+          <t>1836.91</t>
         </is>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2071.21</t>
+          <t>1824.59</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>1948.72</t>
+          <t>1874.96</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>1940.01</t>
+          <t>1865.33</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr">
@@ -5712,42 +5712,42 @@
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>3254.83</t>
+          <t>3266.18</t>
         </is>
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>3399.20</t>
+          <t>3182.94</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>2717.64</t>
+          <t>2647.45</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr">
         <is>
-          <t>2694.32</t>
+          <t>2448.01</t>
         </is>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
-          <t>2097.72</t>
+          <t>1842.86</t>
         </is>
       </c>
       <c r="BQ13" t="inlineStr">
         <is>
-          <t>2085.70</t>
+          <t>1829.69</t>
         </is>
       </c>
       <c r="BR13" t="inlineStr">
         <is>
-          <t>1959.79</t>
+          <t>1887.69</t>
         </is>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>1950.86</t>
+          <t>1876.00</t>
         </is>
       </c>
       <c r="BT13" t="inlineStr">
@@ -5757,42 +5757,42 @@
       </c>
       <c r="BU13" t="inlineStr">
         <is>
-          <t>3347.34</t>
+          <t>3366.20</t>
         </is>
       </c>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>3500.09</t>
+          <t>3286.75</t>
         </is>
       </c>
       <c r="BW13" t="inlineStr">
         <is>
-          <t>2757.42</t>
+          <t>2693.93</t>
         </is>
       </c>
       <c r="BX13" t="inlineStr">
         <is>
-          <t>2751.00</t>
+          <t>2497.23</t>
         </is>
       </c>
       <c r="BY13" t="inlineStr">
         <is>
-          <t>2172.72</t>
+          <t>1920.76</t>
         </is>
       </c>
       <c r="BZ13" t="inlineStr">
         <is>
-          <t>2160.65</t>
+          <t>1908.27</t>
         </is>
       </c>
       <c r="CA13" t="inlineStr">
         <is>
-          <t>2036.72</t>
+          <t>1963.36</t>
         </is>
       </c>
       <c r="CB13" t="inlineStr">
         <is>
-          <t>2026.69</t>
+          <t>1957.43</t>
         </is>
       </c>
       <c r="CC13" t="inlineStr">
@@ -5802,42 +5802,42 @@
       </c>
       <c r="CD13" t="inlineStr">
         <is>
-          <t>4066.44</t>
+          <t>4109.31</t>
         </is>
       </c>
       <c r="CE13" t="inlineStr">
         <is>
-          <t>4074.48</t>
+          <t>3972.53</t>
         </is>
       </c>
       <c r="CF13" t="inlineStr">
         <is>
-          <t>3359.76</t>
+          <t>3346.16</t>
         </is>
       </c>
       <c r="CG13" t="inlineStr">
         <is>
-          <t>3210.83</t>
+          <t>3021.90</t>
         </is>
       </c>
       <c r="CH13" t="inlineStr">
         <is>
-          <t>2545.64</t>
+          <t>2319.15</t>
         </is>
       </c>
       <c r="CI13" t="inlineStr">
         <is>
-          <t>2514.41</t>
+          <t>2285.44</t>
         </is>
       </c>
       <c r="CJ13" t="inlineStr">
         <is>
-          <t>2594.99</t>
+          <t>2486.80</t>
         </is>
       </c>
       <c r="CK13" t="inlineStr">
         <is>
-          <t>2601.39</t>
+          <t>2505.13</t>
         </is>
       </c>
       <c r="CL13" t="inlineStr">
@@ -5849,42 +5849,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2359.50</t>
+          <t>2519.18</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2465.29</t>
+          <t>2395.68</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>689.41</t>
+          <t>734.24</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2051.22</t>
+          <t>1792.93</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1653.69</t>
+          <t>1462.71</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1641.74</t>
+          <t>1454.10</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1588.89</t>
+          <t>1654.94</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1592.80</t>
+          <t>1654.92</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -5894,42 +5894,42 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>3197.37</t>
+          <t>3327.38</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>3237.76</t>
+          <t>2894.26</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2646.14</t>
+          <t>2754.52</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2540.43</t>
+          <t>2287.48</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2013.72</t>
+          <t>1770.18</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1997.47</t>
+          <t>1758.07</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>1913.81</t>
+          <t>1991.34</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>1896.92</t>
+          <t>1985.22</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -5939,42 +5939,42 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>3234.08</t>
+          <t>3343.07</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>3287.54</t>
+          <t>2909.46</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>2658.97</t>
+          <t>2735.62</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2583.80</t>
+          <t>2309.22</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>2036.38</t>
+          <t>1777.05</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>2020.08</t>
+          <t>1765.02</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>1940.41</t>
+          <t>2013.95</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>1928.52</t>
+          <t>2001.78</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -5984,42 +5984,42 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>3254.37</t>
+          <t>3344.46</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>3313.73</t>
+          <t>2889.73</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>2668.57</t>
+          <t>2742.75</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>2601.92</t>
+          <t>2309.50</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>2047.49</t>
+          <t>1970.43</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>2031.56</t>
+          <t>1778.49</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>1966.13</t>
+          <t>2020.65</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1950.22</t>
+          <t>2009.94</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -6029,42 +6029,42 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>3265.68</t>
+          <t>3338.66</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>3340.57</t>
+          <t>3217.42</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>2675.39</t>
+          <t>2755.55</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>2615.13</t>
+          <t>2295.52</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>2056.79</t>
+          <t>1966.55</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>2039.25</t>
+          <t>1960.37</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>1958.47</t>
+          <t>2022.58</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>1954.99</t>
+          <t>2011.76</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
@@ -6074,42 +6074,42 @@
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>3278.35</t>
+          <t>3337.42</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>3338.09</t>
+          <t>3216.93</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>2680.91</t>
+          <t>2761.74</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>2625.89</t>
+          <t>2300.61</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>2061.60</t>
+          <t>1968.41</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>2045.28</t>
+          <t>1959.64</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>1951.62</t>
+          <t>2014.30</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>1951.60</t>
+          <t>2008.08</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
@@ -6119,42 +6119,42 @@
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>3289.79</t>
+          <t>3346.47</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>3349.14</t>
+          <t>3222.68</t>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
-          <t>2692.61</t>
+          <t>2770.25</t>
         </is>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2631.61</t>
+          <t>2575.25</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
-          <t>2067.93</t>
+          <t>1971.85</t>
         </is>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2051.66</t>
+          <t>1960.31</t>
         </is>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
-          <t>1961.82</t>
+          <t>2020.14</t>
         </is>
       </c>
       <c r="BJ14" t="inlineStr">
         <is>
-          <t>1950.32</t>
+          <t>2007.64</t>
         </is>
       </c>
       <c r="BK14" t="inlineStr">
@@ -6164,42 +6164,42 @@
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>3301.93</t>
+          <t>3360.46</t>
         </is>
       </c>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>3362.60</t>
+          <t>3235.37</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>2707.26</t>
+          <t>2782.56</t>
         </is>
       </c>
       <c r="BO14" t="inlineStr">
         <is>
-          <t>2651.91</t>
+          <t>2582.69</t>
         </is>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
-          <t>2081.18</t>
+          <t>1982.81</t>
         </is>
       </c>
       <c r="BQ14" t="inlineStr">
         <is>
-          <t>2064.93</t>
+          <t>1971.09</t>
         </is>
       </c>
       <c r="BR14" t="inlineStr">
         <is>
-          <t>1975.09</t>
+          <t>2032.01</t>
         </is>
       </c>
       <c r="BS14" t="inlineStr">
         <is>
-          <t>1962.71</t>
+          <t>2018.97</t>
         </is>
       </c>
       <c r="BT14" t="inlineStr">
@@ -6209,42 +6209,42 @@
       </c>
       <c r="BU14" t="inlineStr">
         <is>
-          <t>3394.53</t>
+          <t>3452.51</t>
         </is>
       </c>
       <c r="BV14" t="inlineStr">
         <is>
-          <t>3495.31</t>
+          <t>3342.97</t>
         </is>
       </c>
       <c r="BW14" t="inlineStr">
         <is>
-          <t>2750.59</t>
+          <t>2827.12</t>
         </is>
       </c>
       <c r="BX14" t="inlineStr">
         <is>
-          <t>2710.35</t>
+          <t>2639.75</t>
         </is>
       </c>
       <c r="BY14" t="inlineStr">
         <is>
-          <t>2172.99</t>
+          <t>2071.77</t>
         </is>
       </c>
       <c r="BZ14" t="inlineStr">
         <is>
-          <t>2154.89</t>
+          <t>2060.22</t>
         </is>
       </c>
       <c r="CA14" t="inlineStr">
         <is>
-          <t>2056.33</t>
+          <t>2106.46</t>
         </is>
       </c>
       <c r="CB14" t="inlineStr">
         <is>
-          <t>2040.52</t>
+          <t>2098.02</t>
         </is>
       </c>
       <c r="CC14" t="inlineStr">
@@ -6254,42 +6254,42 @@
       </c>
       <c r="CD14" t="inlineStr">
         <is>
-          <t>4205.24</t>
+          <t>4183.91</t>
         </is>
       </c>
       <c r="CE14" t="inlineStr">
         <is>
-          <t>3998.53</t>
+          <t>3569.40</t>
         </is>
       </c>
       <c r="CF14" t="inlineStr">
         <is>
-          <t>3405.15</t>
+          <t>3384.72</t>
         </is>
       </c>
       <c r="CG14" t="inlineStr">
         <is>
-          <t>3196.37</t>
+          <t>2828.34</t>
         </is>
       </c>
       <c r="CH14" t="inlineStr">
         <is>
-          <t>2508.09</t>
+          <t>2176.91</t>
         </is>
       </c>
       <c r="CI14" t="inlineStr">
         <is>
-          <t>2468.51</t>
+          <t>2146.73</t>
         </is>
       </c>
       <c r="CJ14" t="inlineStr">
         <is>
-          <t>2644.96</t>
+          <t>2610.98</t>
         </is>
       </c>
       <c r="CK14" t="inlineStr">
         <is>
-          <t>2651.32</t>
+          <t>2616.75</t>
         </is>
       </c>
       <c r="CL14" t="inlineStr">
@@ -7205,42 +7205,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2084.82</t>
+          <t>1676.78</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2230.01</t>
+          <t>1781.11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>596.53</t>
+          <t>214.06</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1873.40</t>
+          <t>1454.02</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1443.43</t>
+          <t>1147.10</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1435.25</t>
+          <t>1141.52</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1340.03</t>
+          <t>1033.02</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1368.14</t>
+          <t>1050.85</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7250,42 +7250,42 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2794.37</t>
+          <t>2314.65</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2950.21</t>
+          <t>2436.66</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2342.83</t>
+          <t>1945.91</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2338.27</t>
+          <t>1913.50</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1748.47</t>
+          <t>1424.93</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1737.10</t>
+          <t>1414.49</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>1616.06</t>
+          <t>1285.87</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1612.27</t>
+          <t>1284.77</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -7295,42 +7295,42 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>2824.43</t>
+          <t>2321.84</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>2979.86</t>
+          <t>2438.02</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>2333.88</t>
+          <t>1915.41</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>2379.32</t>
+          <t>1913.75</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>1766.89</t>
+          <t>1410.59</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>1760.62</t>
+          <t>1400.86</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>1622.81</t>
+          <t>1297.47</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>1617.95</t>
+          <t>1291.24</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -7340,42 +7340,42 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>2845.04</t>
+          <t>2326.61</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2997.29</t>
+          <t>2432.83</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>2349.64</t>
+          <t>1911.64</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>2399.97</t>
+          <t>1916.80</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>1777.61</t>
+          <t>1413.16</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>1771.39</t>
+          <t>1405.47</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>1639.74</t>
+          <t>1286.89</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1629.44</t>
+          <t>1279.30</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -7385,42 +7385,42 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>2861.78</t>
+          <t>2330.53</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>3012.76</t>
+          <t>2431.83</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>2364.77</t>
+          <t>1916.72</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>2418.82</t>
+          <t>1921.29</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>1791.57</t>
+          <t>1416.26</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>1785.50</t>
+          <t>1409.64</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>1649.59</t>
+          <t>1290.21</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>1643.24</t>
+          <t>1285.13</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
@@ -7430,42 +7430,42 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>2875.79</t>
+          <t>2334.01</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>3026.01</t>
+          <t>2434.53</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>2380.30</t>
+          <t>1919.92</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>2431.76</t>
+          <t>1927.28</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>1804.43</t>
+          <t>1419.49</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>1796.66</t>
+          <t>1413.31</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>1660.03</t>
+          <t>1293.33</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>1652.07</t>
+          <t>1288.28</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
@@ -7475,42 +7475,42 @@
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>2889.32</t>
+          <t>2337.87</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>3038.44</t>
+          <t>2437.72</t>
         </is>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>2395.43</t>
+          <t>1923.98</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2447.65</t>
+          <t>1933.33</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>1815.56</t>
+          <t>1423.31</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>1807.59</t>
+          <t>1417.36</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
-          <t>1669.89</t>
+          <t>1299.88</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>1660.18</t>
+          <t>1291.94</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr">
@@ -7520,42 +7520,42 @@
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>2906.79</t>
+          <t>2346.85</t>
         </is>
       </c>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>3057.40</t>
+          <t>2446.16</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>2410.08</t>
+          <t>1932.68</t>
         </is>
       </c>
       <c r="BO17" t="inlineStr">
         <is>
-          <t>2463.11</t>
+          <t>1940.08</t>
         </is>
       </c>
       <c r="BP17" t="inlineStr">
         <is>
-          <t>1832.03</t>
+          <t>1432.05</t>
         </is>
       </c>
       <c r="BQ17" t="inlineStr">
         <is>
-          <t>1824.31</t>
+          <t>1426.78</t>
         </is>
       </c>
       <c r="BR17" t="inlineStr">
         <is>
-          <t>1684.03</t>
+          <t>1308.42</t>
         </is>
       </c>
       <c r="BS17" t="inlineStr">
         <is>
-          <t>1673.73</t>
+          <t>1300.46</t>
         </is>
       </c>
       <c r="BT17" t="inlineStr">
@@ -7565,42 +7565,42 @@
       </c>
       <c r="BU17" t="inlineStr">
         <is>
-          <t>2991.89</t>
+          <t>2428.64</t>
         </is>
       </c>
       <c r="BV17" t="inlineStr">
         <is>
-          <t>3143.14</t>
+          <t>2528.45</t>
         </is>
       </c>
       <c r="BW17" t="inlineStr">
         <is>
-          <t>2453.02</t>
+          <t>1976.97</t>
         </is>
       </c>
       <c r="BX17" t="inlineStr">
         <is>
-          <t>2515.05</t>
+          <t>1991.53</t>
         </is>
       </c>
       <c r="BY17" t="inlineStr">
         <is>
-          <t>1917.26</t>
+          <t>1501.00</t>
         </is>
       </c>
       <c r="BZ17" t="inlineStr">
         <is>
-          <t>1911.53</t>
+          <t>1498.11</t>
         </is>
       </c>
       <c r="CA17" t="inlineStr">
         <is>
-          <t>1760.70</t>
+          <t>1375.92</t>
         </is>
       </c>
       <c r="CB17" t="inlineStr">
         <is>
-          <t>1750.39</t>
+          <t>1371.01</t>
         </is>
       </c>
       <c r="CC17" t="inlineStr">
@@ -7610,42 +7610,42 @@
       </c>
       <c r="CD17" t="inlineStr">
         <is>
-          <t>3346.36</t>
+          <t>2875.39</t>
         </is>
       </c>
       <c r="CE17" t="inlineStr">
         <is>
-          <t>3665.60</t>
+          <t>3011.42</t>
         </is>
       </c>
       <c r="CF17" t="inlineStr">
         <is>
-          <t>2912.62</t>
+          <t>2390.90</t>
         </is>
       </c>
       <c r="CG17" t="inlineStr">
         <is>
-          <t>2959.72</t>
+          <t>2417.82</t>
         </is>
       </c>
       <c r="CH17" t="inlineStr">
         <is>
-          <t>2228.55</t>
+          <t>1794.54</t>
         </is>
       </c>
       <c r="CI17" t="inlineStr">
         <is>
-          <t>2198.59</t>
+          <t>1796.19</t>
         </is>
       </c>
       <c r="CJ17" t="inlineStr">
         <is>
-          <t>2195.34</t>
+          <t>1792.73</t>
         </is>
       </c>
       <c r="CK17" t="inlineStr">
         <is>
-          <t>2200.64</t>
+          <t>1801.18</t>
         </is>
       </c>
       <c r="CL17" t="inlineStr">
@@ -7657,42 +7657,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2405.40</t>
+          <t>2535.16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2522.45</t>
+          <t>2527.26</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1669.99</t>
+          <t>1416.56</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2113.44</t>
+          <t>2059.56</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1712.69</t>
+          <t>1696.38</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1703.54</t>
+          <t>1686.80</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1611.60</t>
+          <t>1662.78</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1592.80</t>
+          <t>1654.92</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -7702,42 +7702,42 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>3220.07</t>
+          <t>3343.60</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>3296.29</t>
+          <t>3259.75</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2678.67</t>
+          <t>2754.52</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2602.17</t>
+          <t>2552.21</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2028.92</t>
+          <t>1937.84</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2020.40</t>
+          <t>1923.18</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>1913.81</t>
+          <t>1991.34</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>1905.12</t>
+          <t>1985.22</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -7747,42 +7747,42 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>3256.02</t>
+          <t>3371.16</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>3329.22</t>
+          <t>3314.07</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2667.41</t>
+          <t>2735.62</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2637.98</t>
+          <t>2607.44</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>2050.85</t>
+          <t>2033.50</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>2037.85</t>
+          <t>2020.38</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>1940.41</t>
+          <t>2013.95</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>1928.52</t>
+          <t>2001.78</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -7792,42 +7792,42 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>3275.12</t>
+          <t>3384.54</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>3345.73</t>
+          <t>3342.77</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>2675.97</t>
+          <t>2779.83</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>2656.66</t>
+          <t>2652.35</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>2055.23</t>
+          <t>2043.32</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>2041.32</t>
+          <t>2030.18</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>1966.13</t>
+          <t>2020.65</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>1950.22</t>
+          <t>2010.91</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -7837,42 +7837,42 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>3289.58</t>
+          <t>3390.92</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>3357.29</t>
+          <t>3377.65</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>2684.31</t>
+          <t>2791.21</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>2669.31</t>
+          <t>2712.93</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>2064.24</t>
+          <t>2105.64</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>2051.88</t>
+          <t>2089.92</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>1958.47</t>
+          <t>2027.77</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>1954.99</t>
+          <t>2011.76</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
@@ -7882,42 +7882,42 @@
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>3299.46</t>
+          <t>3387.15</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>3368.78</t>
+          <t>3360.82</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>2705.74</t>
+          <t>2794.97</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>2676.90</t>
+          <t>2719.06</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>2073.91</t>
+          <t>2111.28</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>2061.75</t>
+          <t>2096.52</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>1955.19</t>
+          <t>2030.75</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>1951.60</t>
+          <t>2023.53</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
@@ -7927,42 +7927,42 @@
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>3311.66</t>
+          <t>3386.21</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>3380.54</t>
+          <t>3369.39</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>2714.93</t>
+          <t>2801.16</t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2682.80</t>
+          <t>2726.23</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>2083.40</t>
+          <t>2116.37</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2071.21</t>
+          <t>2106.87</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>1961.82</t>
+          <t>2042.14</t>
         </is>
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>1950.32</t>
+          <t>2028.80</t>
         </is>
       </c>
       <c r="BK18" t="inlineStr">
@@ -7972,42 +7972,42 @@
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>3329.04</t>
+          <t>3403.43</t>
         </is>
       </c>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>3399.20</t>
+          <t>3383.62</t>
         </is>
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>2728.22</t>
+          <t>2803.15</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>2695.87</t>
+          <t>2738.04</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
-          <t>2097.72</t>
+          <t>2135.17</t>
         </is>
       </c>
       <c r="BQ18" t="inlineStr">
         <is>
-          <t>2085.70</t>
+          <t>2120.43</t>
         </is>
       </c>
       <c r="BR18" t="inlineStr">
         <is>
-          <t>1975.09</t>
+          <t>2052.09</t>
         </is>
       </c>
       <c r="BS18" t="inlineStr">
         <is>
-          <t>1962.71</t>
+          <t>2037.17</t>
         </is>
       </c>
       <c r="BT18" t="inlineStr">
@@ -8017,42 +8017,42 @@
       </c>
       <c r="BU18" t="inlineStr">
         <is>
-          <t>3433.08</t>
+          <t>3499.77</t>
         </is>
       </c>
       <c r="BV18" t="inlineStr">
         <is>
-          <t>3500.09</t>
+          <t>3496.09</t>
         </is>
       </c>
       <c r="BW18" t="inlineStr">
         <is>
-          <t>2785.33</t>
+          <t>2856.55</t>
         </is>
       </c>
       <c r="BX18" t="inlineStr">
         <is>
-          <t>2751.00</t>
+          <t>2789.09</t>
         </is>
       </c>
       <c r="BY18" t="inlineStr">
         <is>
-          <t>2175.31</t>
+          <t>2229.24</t>
         </is>
       </c>
       <c r="BZ18" t="inlineStr">
         <is>
-          <t>2160.65</t>
+          <t>2214.48</t>
         </is>
       </c>
       <c r="CA18" t="inlineStr">
         <is>
-          <t>2056.33</t>
+          <t>2136.32</t>
         </is>
       </c>
       <c r="CB18" t="inlineStr">
         <is>
-          <t>2040.52</t>
+          <t>2127.69</t>
         </is>
       </c>
       <c r="CC18" t="inlineStr">
@@ -8062,42 +8062,42 @@
       </c>
       <c r="CD18" t="inlineStr">
         <is>
-          <t>4219.98</t>
+          <t>4338.60</t>
         </is>
       </c>
       <c r="CE18" t="inlineStr">
         <is>
-          <t>4179.55</t>
+          <t>4060.11</t>
         </is>
       </c>
       <c r="CF18" t="inlineStr">
         <is>
-          <t>3405.15</t>
+          <t>3474.16</t>
         </is>
       </c>
       <c r="CG18" t="inlineStr">
         <is>
-          <t>3296.56</t>
+          <t>3210.50</t>
         </is>
       </c>
       <c r="CH18" t="inlineStr">
         <is>
-          <t>2562.44</t>
+          <t>2551.01</t>
         </is>
       </c>
       <c r="CI18" t="inlineStr">
         <is>
-          <t>2522.50</t>
+          <t>2521.23</t>
         </is>
       </c>
       <c r="CJ18" t="inlineStr">
         <is>
-          <t>2644.96</t>
+          <t>2654.77</t>
         </is>
       </c>
       <c r="CK18" t="inlineStr">
         <is>
-          <t>2651.32</t>
+          <t>2669.85</t>
         </is>
       </c>
       <c r="CL18" t="inlineStr">
